--- a/storage/documents/Formato_Crear_Contingencias.xlsx
+++ b/storage/documents/Formato_Crear_Contingencias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://softlogy-my.sharepoint.com/personal/jeremy_pedraza_softlogyco_com/Documents/Documents/Abril 21 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Softlogy-Develop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{672CD52B-C783-416E-84C0-CAF4F6288EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBAF4CB6-853B-4179-B5DC-7DE3D9C2632E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29CC5E-0752-4BA7-BF4C-26EDED52E9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{141EF29D-D662-4900-BB9B-925A517980B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{141EF29D-D662-4900-BB9B-925A517980B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cargue" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5737" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5827" uniqueCount="1105">
   <si>
     <t>Id</t>
   </si>
@@ -3195,29 +3195,176 @@
     <t>38700.00</t>
   </si>
   <si>
-    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900328834&lt;/nitemisor&gt;&lt;codSucursal&gt;900328834&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;0&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;71&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;Consumidor&lt;/nombrereceptor&gt;&lt;segnombrereceptor/&gt;&lt;apellidosreceptor&gt;Final&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;Consumidor Final&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;66&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Risaralda&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;66001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;PEREIRA&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;CARRERA 17 #10-23/ 10-37 LOCAL 2&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;6684545&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor/&gt;&lt;mailreceptor&gt;recuperacionfepos@alimentosalconsumidor.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;recuperacionfepos@alimentosalconsumidor.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;Consumidor Final&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18764077025459&lt;/noresolucion&gt;&lt;prefijo&gt;013P&lt;/prefijo&gt;&lt;folio&gt;3105&lt;/folio&gt;&lt;fecha&gt;2025-02-24&lt;/fecha&gt;&lt;hora&gt;10:57:17&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;1.00&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;ZZZ&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-02-24&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;1.00&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;1.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;0.00&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;1.00&lt;/total&gt;&lt;montoletra/&gt;&lt;textolibre/&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact/&gt;&lt;nccod/&gt;&lt;nciddoc&gt;013P3105&lt;/nciddoc&gt;&lt;ncuuid/&gt;&lt;ncfecha/&gt;&lt;ndidfact/&gt;&lt;ndcod/&gt;&lt;ndiddoc/&gt;&lt;nduuid/&gt;&lt;ndfecha/&gt;&lt;extra1&gt;PJ PEREIRA-PINARES&lt;/extra1&gt;&lt;extra2&gt;CARRERA 17 #10-23/ 10-37 LOCAL 2&lt;/extra2&gt;&lt;extra3&gt;6684545&lt;/extra3&gt;&lt;extra4&gt;recuperacionfepos@alimentosalconsumidor.com&lt;/extra4&gt;&lt;extra5&gt;0.00&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8/&gt;&lt;extra9&gt;Pereira&lt;/extra9&gt;&lt;extra10/&gt;&lt;extra11/&gt;&lt;extra12/&gt;&lt;extra13/&gt;&lt;extra14/&gt;&lt;extra15/&gt;&lt;extra16/&gt;&lt;extra17/&gt;&lt;extra18/&gt;&lt;idContrato/&gt;&lt;tipoContrato/&gt;&lt;numMatricula/&gt;&lt;numMatriculaMan/&gt;&lt;nombreMandatario/&gt;&lt;nitDV/&gt;&lt;tiposResponsabilidades/&gt;&lt;numeroConformidad/&gt;&lt;numeroPedido/&gt;&lt;folioPOS&gt;13281120&lt;/folioPOS&gt;&lt;checkid&gt;20009&lt;/checkid&gt;&lt;IdentificadorOrden/&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;13&lt;/StoreId&gt;&lt;ordenCompra/&gt;&lt;hojaEntrada/&gt;&lt;centroOperacion/&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;607&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;0.00&lt;/impuestolinea&gt;&lt;tasa&gt;0.00&lt;/tasa&gt;&lt;tipo&gt;01&lt;/tipo&gt;&lt;baseimpuestos&gt;1.00&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria/&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;607&lt;/identificacionproductos&gt;&lt;descripcion&gt;Obs. Garlic Knots&lt;/descripcion&gt;&lt;precioUnitario&gt;1.00&lt;/precioUnitario&gt;&lt;importe&gt;1.00&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra/&gt;&lt;adicionalInfo/&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1/&gt;&lt;extra2/&gt;&lt;extra3/&gt;&lt;extra4/&gt;&lt;extra5/&gt;&lt;extra6/&gt;&lt;extra7/&gt;&lt;extra8/&gt;&lt;extra9/&gt;&lt;extra10/&gt;&lt;extra11/&gt;&lt;extra12/&gt;&lt;extra13/&gt;&lt;extra14/&gt;&lt;extra15/&gt;&lt;/Det&gt;&lt;/Detalle&gt;&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;1.00&lt;/baseimpuestos&gt;&lt;tasa&gt;0.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;01&lt;/tipoImpuesto&gt;&lt;importe&gt;0.00&lt;/importe&gt;&lt;redondeo/&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
-  </si>
-  <si>
-    <t>NumResolucion</t>
-  </si>
-  <si>
     <t>XML - EJEMPLO 👇👇 AGREGAR APARTIR DE LA FILA 2</t>
   </si>
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Tipo Comprobante</t>
-  </si>
-  <si>
-    <t>XSLT</t>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002267&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;38888.88&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;38888.88&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;41999.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;3111.11&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;41999.99&lt;/total&gt;&lt;montoletra&gt;CUARENTA Y UN MIL NOVECIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002267&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;3,111.11&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;16,666.66&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;361&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6021&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;3490&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;518.52&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;6481.48&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;220&lt;/identificacionproductos&gt;&lt;descripcion&gt;EMPANADA DE CARNITAS&lt;/descripcion&gt;&lt;precioUnitario&gt;9259.25&lt;/precioUnitario&gt;&lt;importe&gt;6481.48&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;3491&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2592.59&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;32407.40&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;247&lt;/identificacionproductos&gt;&lt;descripcion&gt;ANTICUCHO LOMO&lt;/descripcion&gt;&lt;precioUnitario&gt;46296.29&lt;/precioUnitario&gt;&lt;importe&gt;32407.40&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;3490&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2777.77&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2777.77&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;3491&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;13888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;13888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;42000&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;38888.88&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;3111.11&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002325&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;82962.95&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;82962.95&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;89599.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;6637.04&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;89599.99&lt;/total&gt;&lt;montoletra&gt;OCHENTA Y NUEVE MIL QUINIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002325&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;6,637.03&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;35,555.55&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;423&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6079&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;4111&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1659.26&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;20740.73&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;226&lt;/identificacionproductos&gt;&lt;descripcion&gt;TOSTADAS DE ATUN&lt;/descripcion&gt;&lt;precioUnitario&gt;29629.62&lt;/precioUnitario&gt;&lt;importe&gt;20740.73&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;4129&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;362.96&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;4537.04&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;312&lt;/identificacionproductos&gt;&lt;descripcion&gt;MICHELADA AGUACHILE&lt;/descripcion&gt;&lt;precioUnitario&gt;6481.48&lt;/precioUnitario&gt;&lt;importe&gt;4537.04&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;4142&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1244.44&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;15555.55&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;203&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACOS AL PASTOR COSTRA&lt;/descripcion&gt;&lt;precioUnitario&gt;22222.22&lt;/precioUnitario&gt;&lt;importe&gt;15555.55&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;4143&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1503.70&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;18796.30&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;204&lt;/identificacionproductos&gt;&lt;descripcion&gt;ESQUITES COYOACAN&lt;/descripcion&gt;&lt;precioUnitario&gt;26851.85&lt;/precioUnitario&gt;&lt;importe&gt;18796.30&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;4179&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;215&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE SANDIA&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;4232&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1140.74&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;255&lt;/identificacionproductos&gt;&lt;descripcion&gt;FLAN DE ELOTE&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;14259.26&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;4111&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;8888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;8888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;4129&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;1944.44&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;1944.44&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;4142&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6666.67&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6666.67&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;4143&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;8055.55&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;8055.55&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;4179&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;4232&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;89600&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;82962.95&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;6637.03&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002378&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;14259.26&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;14259.26&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;15400.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1140.74&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;15400.00&lt;/total&gt;&lt;montoletra&gt;QUINCE MIL CUATROCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002378&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,140.74&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;6,111.11&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;481&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6132&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;4653&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1140.74&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;257&lt;/identificacionproductos&gt;&lt;descripcion&gt;MOUSSE DE MARACUYA&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;14259.26&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;4653&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;15400&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1140.74&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002381&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;27222.22&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;27222.22&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;29400.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;2177.78&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;29400.00&lt;/total&gt;&lt;montoletra&gt;VEINTINUEVE MIL CUATROCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002381&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;2,177.78&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;11,666.66&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;484&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6135&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;4670&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2177.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;27222.22&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;147&lt;/identificacionproductos&gt;&lt;descripcion&gt;TR VERDE MOMENTO&lt;/descripcion&gt;&lt;precioUnitario&gt;38888.88&lt;/precioUnitario&gt;&lt;importe&gt;27222.22&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;4670&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;11666.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;11666.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;29400&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;27222.22&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;2177.78&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002516&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;62870.35&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;62870.35&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;67899.98&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;5029.63&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;67899.98&lt;/total&gt;&lt;montoletra&gt;SESENTA Y SIETE MIL OCHOCIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002516&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;5,029.63&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;47,314.81&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;633&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6270&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;6140&lt;/idConcepto&gt;&lt;cantidad&gt;2&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;829.63&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;10370.36&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;29&lt;/identificacionproductos&gt;&lt;descripcion&gt;COCA COLA REGULAR&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;10370.36&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;6141&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;215&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE SANDIA&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;6159&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2333.33&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;29166.66&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;199&lt;/identificacionproductos&gt;&lt;descripcion&gt;CEVICHE BOTE MIXTO&lt;/descripcion&gt;&lt;precioUnitario&gt;41666.66&lt;/precioUnitario&gt;&lt;importe&gt;29166.66&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;6162&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;350&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE LYCHEES&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;6175&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;414.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;16&lt;/identificacionproductos&gt;&lt;descripcion&gt;CAPUCCINO&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;5185.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;6172&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;20370.37&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;20370.37&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 100%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;6140&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;4444.44&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;4444.44&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;6141&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;6159&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;12500.00&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;12500.00&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;6162&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;6175&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;67900&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;62870.34&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;5029.63&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002666&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;14259.26&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;14259.26&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;15400.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1140.74&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;15400.00&lt;/total&gt;&lt;montoletra&gt;QUINCE MIL CUATROCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002666&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,140.74&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;6,111.11&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;805&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6420&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;7757&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1140.74&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;240&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACO DE CARNITAS COSTR&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;14259.26&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;7757&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;15400&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1140.74&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002695&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;19444.43&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;19444.43&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;20999.98&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1555.55&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;20999.98&lt;/total&gt;&lt;montoletra&gt;VEINTE MIL NOVECIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002695&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,555.55&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;8,333.33&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;837&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6449&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8057&lt;/idConcepto&gt;&lt;cantidad&gt;2&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1555.55&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;19444.43&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;35&lt;/identificacionproductos&gt;&lt;descripcion&gt;CUSQUEÑA&lt;/descripcion&gt;&lt;precioUnitario&gt;13888.88&lt;/precioUnitario&gt;&lt;importe&gt;19444.43&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8057&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;8333.33&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;8333.33&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;21000&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;19444.43&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1555.55&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002696&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;36296.30&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;36296.30&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;39200.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;2903.70&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;39200.00&lt;/total&gt;&lt;montoletra&gt;TREINTA Y NUEVE MIL DOSCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002696&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;2,903.70&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;15,555.55&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;838&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6450&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8058&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2903.70&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;36296.30&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;208&lt;/identificacionproductos&gt;&lt;descripcion&gt;CHAUFA MIXTO&lt;/descripcion&gt;&lt;precioUnitario&gt;51851.85&lt;/precioUnitario&gt;&lt;importe&gt;36296.30&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8058&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;15555.55&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;15555.55&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;39200&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;36296.30&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;2903.70&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002697&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;36296.30&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;36296.30&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;39200.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;2903.70&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;39200.00&lt;/total&gt;&lt;montoletra&gt;TREINTA Y NUEVE MIL DOSCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002697&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;2,903.70&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;15,555.55&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;839&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6451&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8059&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2903.70&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;36296.30&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;208&lt;/identificacionproductos&gt;&lt;descripcion&gt;CHAUFA MIXTO&lt;/descripcion&gt;&lt;precioUnitario&gt;51851.85&lt;/precioUnitario&gt;&lt;importe&gt;36296.30&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8059&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;15555.55&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;15555.55&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;39200&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;36296.30&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;2903.70&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002698&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;20740.73&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;20740.73&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;22399.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1659.26&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;22399.99&lt;/total&gt;&lt;montoletra&gt;VEINTIDOS MIL TRESCIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002698&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,659.25&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;8,888.89&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;840&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6452&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8060&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1244.44&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;15555.55&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;203&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACOS AL PASTOR COSTRA&lt;/descripcion&gt;&lt;precioUnitario&gt;22222.22&lt;/precioUnitario&gt;&lt;importe&gt;15555.55&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8061&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;414.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;29&lt;/identificacionproductos&gt;&lt;descripcion&gt;COCA COLA REGULAR&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;5185.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8060&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6666.67&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6666.67&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8061&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;22400&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;20740.73&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1659.25&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002712&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;86851.84&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;86851.84&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;93799.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;6948.15&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;93799.99&lt;/total&gt;&lt;montoletra&gt;NOVENTA Y TRES MIL SETECIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002712&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;6,948.15&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;37,222.21&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;853&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6466&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8205&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;3007.41&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;37592.59&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;206&lt;/identificacionproductos&gt;&lt;descripcion&gt;LOMO SALTADO&lt;/descripcion&gt;&lt;precioUnitario&gt;53703.70&lt;/precioUnitario&gt;&lt;importe&gt;37592.59&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8206&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1140.74&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;240&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACO DE CARNITAS COSTR&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;14259.26&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8208&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2177.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;27222.22&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;225&lt;/identificacionproductos&gt;&lt;descripcion&gt;CEVICHE CARRETILLERO&lt;/descripcion&gt;&lt;precioUnitario&gt;38888.88&lt;/precioUnitario&gt;&lt;importe&gt;27222.22&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8209&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;622.22&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;7777.78&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;213&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE JAMICA&lt;/descripcion&gt;&lt;precioUnitario&gt;11111.11&lt;/precioUnitario&gt;&lt;importe&gt;7777.78&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8205&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;16111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;16111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8206&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8208&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;11666.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;11666.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8209&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3333.33&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3333.33&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;93800&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;86851.85&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;6948.15&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002740&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;300740.64&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;300740.64&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;324799.89&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;24059.25&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;324799.89&lt;/total&gt;&lt;montoletra&gt;TRESCIENTOS VEINTICUATRO MIL SETECIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002740&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;24,059.25&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;149,259.29&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;883&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6494&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8568&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;777.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9722.21&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;33&lt;/identificacionproductos&gt;&lt;descripcion&gt;STELLA ARTOIS&lt;/descripcion&gt;&lt;precioUnitario&gt;13888.88&lt;/precioUnitario&gt;&lt;importe&gt;9722.21&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8569&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2177.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;27222.21&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;190&lt;/identificacionproductos&gt;&lt;descripcion&gt;JARDIN ERRANTE&lt;/descripcion&gt;&lt;precioUnitario&gt;38888.88&lt;/precioUnitario&gt;&lt;importe&gt;27222.21&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8570&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2022.22&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;25277.77&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;212&lt;/identificacionproductos&gt;&lt;descripcion&gt;DOS LUGARES&lt;/descripcion&gt;&lt;precioUnitario&gt;36111.11&lt;/precioUnitario&gt;&lt;importe&gt;25277.77&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8571&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;215&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE SANDIA&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8573&lt;/idConcepto&gt;&lt;cantidad&gt;2&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;829.63&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;10370.36&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;27&lt;/identificacionproductos&gt;&lt;descripcion&gt;MANANTIAL&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;10370.36&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8574&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1244.44&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;15555.55&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;203&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACOS AL PASTOR COSTRA&lt;/descripcion&gt;&lt;precioUnitario&gt;22222.22&lt;/precioUnitario&gt;&lt;importe&gt;15555.55&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8575&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1244.44&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;15555.55&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;243&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACO BAJA CALIFORNIA&lt;/descripcion&gt;&lt;precioUnitario&gt;22222.22&lt;/precioUnitario&gt;&lt;importe&gt;15555.55&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8576&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2177.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;27222.21&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;201&lt;/identificacionproductos&gt;&lt;descripcion&gt;TIRADITO KON PASIÓN&lt;/descripcion&gt;&lt;precioUnitario&gt;38888.88&lt;/precioUnitario&gt;&lt;importe&gt;27222.21&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8578&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2488.89&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;31111.10&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;229&lt;/identificacionproductos&gt;&lt;descripcion&gt;AJÍ DE GALLINA&lt;/descripcion&gt;&lt;precioUnitario&gt;44444.44&lt;/precioUnitario&gt;&lt;importe&gt;31111.10&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8579&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;3007.41&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;37592.59&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;206&lt;/identificacionproductos&gt;&lt;descripcion&gt;LOMO SALTADO&lt;/descripcion&gt;&lt;precioUnitario&gt;53703.70&lt;/precioUnitario&gt;&lt;importe&gt;37592.59&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8580&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;3370.37&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;42129.62&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;227&lt;/identificacionproductos&gt;&lt;descripcion&gt;PULPO AL ACHIOTE&lt;/descripcion&gt;&lt;precioUnitario&gt;60185.18&lt;/precioUnitario&gt;&lt;importe&gt;42129.62&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8581&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1503.70&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;18796.29&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;204&lt;/identificacionproductos&gt;&lt;descripcion&gt;ESQUITES COYOACAN&lt;/descripcion&gt;&lt;precioUnitario&gt;26851.85&lt;/precioUnitario&gt;&lt;importe&gt;18796.29&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8582&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;414.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;29&lt;/identificacionproductos&gt;&lt;descripcion&gt;COCA COLA REGULAR&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;5185.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8583&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;518.52&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;6481.47&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;195&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE TAMARINDO&lt;/descripcion&gt;&lt;precioUnitario&gt;9259.25&lt;/precioUnitario&gt;&lt;importe&gt;6481.47&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8584&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1555.55&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;19444.44&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;162&lt;/identificacionproductos&gt;&lt;descripcion&gt;TR JACK DANIELS&lt;/descripcion&gt;&lt;precioUnitario&gt;27777.77&lt;/precioUnitario&gt;&lt;importe&gt;19444.44&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8566&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;20370.37&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;20370.37&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 100%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8568&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;4166.67&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;4166.67&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8569&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;11666.67&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;11666.67&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8570&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;10833.34&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;10833.34&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8571&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8573&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;4444.44&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;4444.44&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8574&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6666.67&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6666.67&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8575&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6666.67&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6666.67&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8576&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;11666.67&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;11666.67&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8578&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;13333.34&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;13333.34&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8579&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;16111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;16111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8580&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;18055.56&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;18055.56&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8581&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;8055.56&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;8055.56&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8582&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8583&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2777.78&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2777.78&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8584&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;8333.33&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;8333.33&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;324800&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;300740.62&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;24059.25&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002749&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;24629.63&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;24629.63&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;26600.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1970.37&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;26600.00&lt;/total&gt;&lt;montoletra&gt;VEINTISEIS MIL SEISCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002749&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,970.37&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;10,555.55&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;894&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6503&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8666&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1244.44&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;15555.56&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;203&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACOS AL PASTOR COSTRA&lt;/descripcion&gt;&lt;precioUnitario&gt;22222.22&lt;/precioUnitario&gt;&lt;importe&gt;15555.56&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;8667&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;239&lt;/identificacionproductos&gt;&lt;descripcion&gt;EMPANADA DE LOMO&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8666&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6666.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6666.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;8667&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;26600&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;24629.63&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1970.37&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002849&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;54444.43&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;54444.43&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;58799.98&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;4355.55&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;58799.98&lt;/total&gt;&lt;montoletra&gt;CINCUENTA Y OCHO MIL SETECIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002849&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;4,355.55&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;23,333.33&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;996&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6603&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;9561&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1037.04&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;12962.96&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;362&lt;/identificacionproductos&gt;&lt;descripcion&gt;TR MIL DEMONIOS&lt;/descripcion&gt;&lt;precioUnitario&gt;18518.51&lt;/precioUnitario&gt;&lt;importe&gt;12962.96&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;9562&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1503.70&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;18796.29&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;204&lt;/identificacionproductos&gt;&lt;descripcion&gt;ESQUITES COYOACAN&lt;/descripcion&gt;&lt;precioUnitario&gt;26851.85&lt;/precioUnitario&gt;&lt;importe&gt;18796.29&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;9564&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1814.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;22685.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;205&lt;/identificacionproductos&gt;&lt;descripcion&gt;GUACAMOLE PORK BELLY&lt;/descripcion&gt;&lt;precioUnitario&gt;32407.40&lt;/precioUnitario&gt;&lt;importe&gt;22685.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;9561&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;5555.55&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;5555.55&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;9562&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;8055.56&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;8055.56&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;9564&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;9722.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;9722.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;58800&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;54444.43&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;4355.55&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002877&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;117962.94&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;117962.94&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;127399.98&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;9437.04&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;127399.98&lt;/total&gt;&lt;montoletra&gt;CIENTO VEINTISIETE MIL TRESCIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002877&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;9,437.05&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;50,555.55&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1028&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6631&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;9855&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;7259.26&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;90740.72&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;254&lt;/identificacionproductos&gt;&lt;descripcion&gt;ANGUS RAYMI&lt;/descripcion&gt;&lt;precioUnitario&gt;129629.60&lt;/precioUnitario&gt;&lt;importe&gt;90740.72&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;9856&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;350&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE LYCHEES&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;9857&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;350&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE LYCHEES&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;9859&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;350&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE LYCHEES&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;9855&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;38888.88&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;38888.88&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;9856&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;9857&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;9859&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;127400&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;117962.93&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;9437.05&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002930&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;14259.26&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;14259.26&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;15400.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1140.74&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;15400.00&lt;/total&gt;&lt;montoletra&gt;QUINCE MIL CUATROCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002930&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,140.74&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;6,111.11&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1084&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6684&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10404&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1140.74&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;296&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACO PASTOR SIN COSTRA&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;14259.26&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;10404&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;15400&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1140.74&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990002950&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;449444.37&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;449444.37&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;485399.92&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;35955.55&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;530344.36&lt;/total&gt;&lt;montoletra&gt;QUINIENTOS TREINTA MIL TRESCIENTOS CUARENTA Y CUATRO PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;44944.44&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990002950&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;35,955.55&lt;/extra5&gt;&lt;extra6&gt;44,944.44&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;60,740.73&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1104&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6704&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10604&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1259.26&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;15740.74&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;25&lt;/identificacionproductos&gt;&lt;descripcion&gt;AGUA PANNA 505&lt;/descripcion&gt;&lt;precioUnitario&gt;15740.74&lt;/precioUnitario&gt;&lt;importe&gt;15740.74&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10605&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1111.11&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;13888.88&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;33&lt;/identificacionproductos&gt;&lt;descripcion&gt;STELLA ARTOIS&lt;/descripcion&gt;&lt;precioUnitario&gt;13888.88&lt;/precioUnitario&gt;&lt;importe&gt;13888.88&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10607&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2888.89&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;36111.11&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;191&lt;/identificacionproductos&gt;&lt;descripcion&gt;FLOR ARDIENTE&lt;/descripcion&gt;&lt;precioUnitario&gt;36111.11&lt;/precioUnitario&gt;&lt;importe&gt;36111.11&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10608&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1422.22&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;17777.77&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;226&lt;/identificacionproductos&gt;&lt;descripcion&gt;TOSTADAS DE ATUN&lt;/descripcion&gt;&lt;precioUnitario&gt;29629.62&lt;/precioUnitario&gt;&lt;importe&gt;17777.77&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10609&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;533.33&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;6666.67&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;220&lt;/identificacionproductos&gt;&lt;descripcion&gt;EMPANADA DE CARNITAS&lt;/descripcion&gt;&lt;precioUnitario&gt;11111.11&lt;/precioUnitario&gt;&lt;importe&gt;6666.67&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10610&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2888.89&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;36111.11&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;212&lt;/identificacionproductos&gt;&lt;descripcion&gt;DOS LUGARES&lt;/descripcion&gt;&lt;precioUnitario&gt;36111.11&lt;/precioUnitario&gt;&lt;importe&gt;36111.11&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10611&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2888.89&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;36111.11&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;227&lt;/identificacionproductos&gt;&lt;descripcion&gt;PULPO AL ACHIOTE&lt;/descripcion&gt;&lt;precioUnitario&gt;60185.18&lt;/precioUnitario&gt;&lt;importe&gt;36111.11&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10612&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1111.11&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;13888.88&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;33&lt;/identificacionproductos&gt;&lt;descripcion&gt;STELLA ARTOIS&lt;/descripcion&gt;&lt;precioUnitario&gt;13888.88&lt;/precioUnitario&gt;&lt;importe&gt;13888.88&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10613&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2888.89&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;36111.11&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;191&lt;/identificacionproductos&gt;&lt;descripcion&gt;FLOR ARDIENTE&lt;/descripcion&gt;&lt;precioUnitario&gt;36111.11&lt;/precioUnitario&gt;&lt;importe&gt;36111.11&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10614&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2444.44&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;30555.55&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;248&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACU TACU DE LOMO&lt;/descripcion&gt;&lt;precioUnitario&gt;50925.92&lt;/precioUnitario&gt;&lt;importe&gt;30555.55&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10615&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2370.37&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;29629.62&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;305&lt;/identificacionproductos&gt;&lt;descripcion&gt;MOSCOW MULE&lt;/descripcion&gt;&lt;precioUnitario&gt;29629.62&lt;/precioUnitario&gt;&lt;importe&gt;29629.62&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10616&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2370.37&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;29629.62&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;305&lt;/identificacionproductos&gt;&lt;descripcion&gt;MOSCOW MULE&lt;/descripcion&gt;&lt;precioUnitario&gt;29629.62&lt;/precioUnitario&gt;&lt;importe&gt;29629.62&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10617&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1259.26&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;15740.74&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;26&lt;/identificacionproductos&gt;&lt;descripcion&gt;AGUA SANPELLEGRINO 505&lt;/descripcion&gt;&lt;precioUnitario&gt;15740.74&lt;/precioUnitario&gt;&lt;importe&gt;15740.74&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10618&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2888.89&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;36111.11&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;191&lt;/identificacionproductos&gt;&lt;descripcion&gt;FLOR ARDIENTE&lt;/descripcion&gt;&lt;precioUnitario&gt;36111.11&lt;/precioUnitario&gt;&lt;importe&gt;36111.11&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10619&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2370.37&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;29629.62&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;305&lt;/identificacionproductos&gt;&lt;descripcion&gt;MOSCOW MULE&lt;/descripcion&gt;&lt;precioUnitario&gt;29629.62&lt;/precioUnitario&gt;&lt;importe&gt;29629.62&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10620&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2888.89&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;36111.11&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;191&lt;/identificacionproductos&gt;&lt;descripcion&gt;FLOR ARDIENTE&lt;/descripcion&gt;&lt;precioUnitario&gt;36111.11&lt;/precioUnitario&gt;&lt;importe&gt;36111.11&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;10621&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2370.37&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;29629.62&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;305&lt;/identificacionproductos&gt;&lt;descripcion&gt;MOSCOW MULE&lt;/descripcion&gt;&lt;precioUnitario&gt;29629.62&lt;/precioUnitario&gt;&lt;importe&gt;29629.62&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;&lt;Cargos&gt;&lt;Car&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;razon&gt;Propina 10%&lt;/razon&gt;&lt;codcargo&gt;&lt;/codcargo&gt;&lt;porcentaje&gt;100.00&lt;/porcentaje&gt;&lt;basecargo&gt;44944.44&lt;/basecargo&gt;&lt;importe&gt;44944.44&lt;/importe&gt;&lt;/Car&gt;&lt;/Cargos&gt;&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;10608&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;11851.85&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;11851.85&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 40%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;10609&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;4444.44&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;4444.44&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 40%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;10611&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;24074.07&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;24074.07&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 40%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;10614&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;20370.37&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;20370.37&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 40%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;530344&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;449444.37&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;35955.55&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003031&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;61574.07&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;61574.07&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;66500.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;4925.93&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;66500.00&lt;/total&gt;&lt;montoletra&gt;SESENTA Y SEIS MIL QUINIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003031&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;4,925.93&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;26,388.89&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1194&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6785&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;11482&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2333.33&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;29166.66&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;199&lt;/identificacionproductos&gt;&lt;descripcion&gt;CEVICHE BOTE MIXTO&lt;/descripcion&gt;&lt;precioUnitario&gt;41666.66&lt;/precioUnitario&gt;&lt;importe&gt;29166.66&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;11483&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;215&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE SANDIA&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;11484&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1866.67&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;23333.33&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;382&lt;/identificacionproductos&gt;&lt;descripcion&gt;TOSTADAS DE PULPO&lt;/descripcion&gt;&lt;precioUnitario&gt;33333.33&lt;/precioUnitario&gt;&lt;importe&gt;23333.33&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;11482&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;12500.00&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;12500.00&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;11483&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;11484&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;10000.00&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;10000.00&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;66500&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;61574.06&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;4925.93&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003054&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;14259.25&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;14259.25&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;15399.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1140.74&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;15399.99&lt;/total&gt;&lt;montoletra&gt;QUINCE MIL TRESCIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003054&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,140.74&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;6,111.11&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1218&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6808&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;11721&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;414.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;19&lt;/identificacionproductos&gt;&lt;descripcion&gt;MACCHIATO&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;5185.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;11722&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;215&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE SANDIA&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;11721&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;11722&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;15400&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;14259.25&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1140.74&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003100&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;19444.43&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;19444.43&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;20999.98&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1555.55&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;20999.98&lt;/total&gt;&lt;montoletra&gt;VEINTE MIL NOVECIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003100&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,555.56&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;8,333.32&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1269&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6854&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;12219&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;777.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9722.22&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;34&lt;/identificacionproductos&gt;&lt;descripcion&gt;CORONA&lt;/descripcion&gt;&lt;precioUnitario&gt;13888.88&lt;/precioUnitario&gt;&lt;importe&gt;9722.22&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;12220&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;777.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9722.22&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;34&lt;/identificacionproductos&gt;&lt;descripcion&gt;CORONA&lt;/descripcion&gt;&lt;precioUnitario&gt;13888.88&lt;/precioUnitario&gt;&lt;importe&gt;9722.22&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;12219&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;4166.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;4166.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;12220&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;4166.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;4166.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;21000&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;19444.44&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1555.56&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003151&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;5185.18&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;5185.18&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;5599.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;414.81&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;5599.99&lt;/total&gt;&lt;montoletra&gt;CINCO MIL QUINIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003151&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;414.81&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;2,222.22&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1287&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6905&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;12422&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;414.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;351&lt;/identificacionproductos&gt;&lt;descripcion&gt;GINGER&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;5185.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;12422&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;5600&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;414.81&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003231&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;92685.17&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;92685.17&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;100099.98&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;7414.81&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;109368.50&lt;/total&gt;&lt;montoletra&gt;CIENTO NUEVE MIL TRESCIENTOS SESENTA Y OCHO PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;9268.52&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003231&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;7,414.81&lt;/extra5&gt;&lt;extra6&gt;9,268.52&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;60,092.58&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1410&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;6985&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;13825&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2851.85&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;35648.15&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;385&lt;/identificacionproductos&gt;&lt;descripcion&gt;TIRADITO DOS LUGARES&lt;/descripcion&gt;&lt;precioUnitario&gt;50925.92&lt;/precioUnitario&gt;&lt;importe&gt;35648.15&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;13826&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2696.30&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;33703.70&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;207&lt;/identificacionproductos&gt;&lt;descripcion&gt;TAQUIZA BIRRIA&lt;/descripcion&gt;&lt;precioUnitario&gt;48148.14&lt;/precioUnitario&gt;&lt;importe&gt;33703.70&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;13827&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;414.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;306&lt;/identificacionproductos&gt;&lt;descripcion&gt;ADICION TORTILLAS&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;5185.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;13828&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1451.85&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;18148.14&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;243&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACO BAJA CALIFORNIA&lt;/descripcion&gt;&lt;precioUnitario&gt;25925.92&lt;/precioUnitario&gt;&lt;importe&gt;18148.14&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;&lt;Cargos&gt;&lt;Car&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;razon&gt;Propina 10%&lt;/razon&gt;&lt;codcargo&gt;&lt;/codcargo&gt;&lt;porcentaje&gt;100.00&lt;/porcentaje&gt;&lt;basecargo&gt;9268.52&lt;/basecargo&gt;&lt;importe&gt;9268.52&lt;/importe&gt;&lt;/Car&gt;&lt;/Cargos&gt;&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;13829&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;20370.37&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;20370.37&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 100%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;13825&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;15277.77&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;15277.77&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;13826&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;14444.44&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;14444.44&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;13827&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;13828&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;7777.78&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;7777.78&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;109369&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;92685.17&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;7414.81&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003251&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;70648.14&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;70648.14&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;76299.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;5651.85&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;76299.99&lt;/total&gt;&lt;montoletra&gt;SETENTA Y SEIS MIL DOSCIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003251&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;5,651.85&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;30,277.77&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1433&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7005&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14012&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2333.33&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;29166.66&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;375&lt;/identificacionproductos&gt;&lt;descripcion&gt;MAGUEY&lt;/descripcion&gt;&lt;precioUnitario&gt;41666.66&lt;/precioUnitario&gt;&lt;importe&gt;29166.66&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14014&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2177.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;27222.22&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;201&lt;/identificacionproductos&gt;&lt;descripcion&gt;TIRADITO KON PASIÓN&lt;/descripcion&gt;&lt;precioUnitario&gt;38888.88&lt;/precioUnitario&gt;&lt;importe&gt;27222.22&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14016&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1140.74&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;296&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACO PASTOR SIN COSTRA&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;14259.26&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14012&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;12500.00&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;12500.00&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14014&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;11666.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;11666.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14016&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;76300&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;70648.14&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;5651.85&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003257&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;14259.26&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;14259.26&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;15400.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1140.74&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;15400.00&lt;/total&gt;&lt;montoletra&gt;QUINCE MIL CUATROCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003257&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,140.74&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;6,111.11&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1439&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7011&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14063&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1140.74&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;255&lt;/identificacionproductos&gt;&lt;descripcion&gt;FLAN DE ELOTE&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;14259.26&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14063&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;15400&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1140.74&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003289&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;16851.85&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;16851.85&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;18200.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1348.15&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;18200.00&lt;/total&gt;&lt;montoletra&gt;DIECIOCHO MIL DOSCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003289&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,348.15&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;7,222.22&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1475&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7043&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14325&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1348.15&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;16851.85&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;242&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACO DE LOMO COSTRA&lt;/descripcion&gt;&lt;precioUnitario&gt;24074.07&lt;/precioUnitario&gt;&lt;importe&gt;16851.85&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14325&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;7222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;7222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;18200&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;16851.85&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1348.15&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003333&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;226203.68&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;226203.68&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;244299.97&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;18096.29&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;266920.34&lt;/total&gt;&lt;montoletra&gt;DOSCIENTOS SESENTA Y SEIS MIL NOVECIENTOS VEINTE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;22620.37&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003333&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;18,096.29&lt;/extra5&gt;&lt;extra6&gt;22,620.37&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;96,944.42&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1522&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7087&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14673&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2177.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;27222.22&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;225&lt;/identificacionproductos&gt;&lt;descripcion&gt;CEVICHE CARRETILLERO&lt;/descripcion&gt;&lt;precioUnitario&gt;38888.88&lt;/precioUnitario&gt;&lt;importe&gt;27222.22&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14681&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2022.22&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;25277.78&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;222&lt;/identificacionproductos&gt;&lt;descripcion&gt;KAUSA LIMEÑA&lt;/descripcion&gt;&lt;precioUnitario&gt;36111.11&lt;/precioUnitario&gt;&lt;importe&gt;25277.78&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14688&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;414.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;27&lt;/identificacionproductos&gt;&lt;descripcion&gt;MANANTIAL&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;5185.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14691&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;3007.41&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;37592.59&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;206&lt;/identificacionproductos&gt;&lt;descripcion&gt;LOMO SALTADO&lt;/descripcion&gt;&lt;precioUnitario&gt;53703.70&lt;/precioUnitario&gt;&lt;importe&gt;37592.59&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14699&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;3525.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;44074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;281&lt;/identificacionproductos&gt;&lt;descripcion&gt;ARROZ TUMBAO&lt;/descripcion&gt;&lt;precioUnitario&gt;62962.96&lt;/precioUnitario&gt;&lt;importe&gt;44074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14700&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1866.67&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;23333.33&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;194&lt;/identificacionproductos&gt;&lt;descripcion&gt;PARAISO ANDINO&lt;/descripcion&gt;&lt;precioUnitario&gt;33333.33&lt;/precioUnitario&gt;&lt;importe&gt;23333.33&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14701&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2022.22&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;25277.78&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;212&lt;/identificacionproductos&gt;&lt;descripcion&gt;DOS LUGARES&lt;/descripcion&gt;&lt;precioUnitario&gt;36111.11&lt;/precioUnitario&gt;&lt;importe&gt;25277.78&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14712&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1140.74&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;255&lt;/identificacionproductos&gt;&lt;descripcion&gt;FLAN DE ELOTE&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;14259.26&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14713&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1140.74&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;211&lt;/identificacionproductos&gt;&lt;descripcion&gt;5 LECHES&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;14259.26&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14721&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;414.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;27&lt;/identificacionproductos&gt;&lt;descripcion&gt;MANANTIAL&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;5185.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;14728&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;362.96&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;4537.04&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;15&lt;/identificacionproductos&gt;&lt;descripcion&gt;AMERICANO&lt;/descripcion&gt;&lt;precioUnitario&gt;6481.48&lt;/precioUnitario&gt;&lt;importe&gt;4537.04&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;&lt;Cargos&gt;&lt;Car&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;razon&gt;Propina 10%&lt;/razon&gt;&lt;codcargo&gt;&lt;/codcargo&gt;&lt;porcentaje&gt;100.00&lt;/porcentaje&gt;&lt;basecargo&gt;22620.37&lt;/basecargo&gt;&lt;importe&gt;22620.37&lt;/importe&gt;&lt;/Car&gt;&lt;/Cargos&gt;&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14673&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;11666.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;11666.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14681&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;10833.33&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;10833.33&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14688&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14691&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;16111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;16111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14699&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;18888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;18888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14700&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;10000.00&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;10000.00&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14701&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;10833.33&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;10833.33&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14712&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14713&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14721&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;14728&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;1944.44&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;1944.44&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;266920&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;226203.69&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;18096.29&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003502&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;17499.99&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;17499.99&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;18899.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1400.00&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;18899.99&lt;/total&gt;&lt;montoletra&gt;DIECIOCHO MIL OCHOCIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003502&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,400.00&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;7,500.00&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1699&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7256&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;16593&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;622.22&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;7777.78&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;220&lt;/identificacionproductos&gt;&lt;descripcion&gt;EMPANADA DE CARNITAS&lt;/descripcion&gt;&lt;precioUnitario&gt;11111.11&lt;/precioUnitario&gt;&lt;importe&gt;7777.78&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;16815&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;777.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9722.21&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;35&lt;/identificacionproductos&gt;&lt;descripcion&gt;CUSQUEÑA&lt;/descripcion&gt;&lt;precioUnitario&gt;13888.88&lt;/precioUnitario&gt;&lt;importe&gt;9722.21&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;16593&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3333.33&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3333.33&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;16815&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;4166.67&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;4166.67&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;18900&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;17499.99&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1400.00&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003509&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;36296.28&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;36296.28&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;39199.98&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;2903.70&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;39199.98&lt;/total&gt;&lt;montoletra&gt;TREINTA Y NUEVE MIL CIENTO NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003509&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;2,903.70&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;15,555.54&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1707&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7263&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;16632&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;777.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9722.22&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;35&lt;/identificacionproductos&gt;&lt;descripcion&gt;CUSQUEÑA&lt;/descripcion&gt;&lt;precioUnitario&gt;13888.88&lt;/precioUnitario&gt;&lt;importe&gt;9722.22&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;16633&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;414.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;29&lt;/identificacionproductos&gt;&lt;descripcion&gt;COCA COLA REGULAR&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;5185.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;16634&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;570.37&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;7129.63&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;317&lt;/identificacionproductos&gt;&lt;descripcion&gt;A TACO PASTOR SIN COST&lt;/descripcion&gt;&lt;precioUnitario&gt;10185.18&lt;/precioUnitario&gt;&lt;importe&gt;7129.63&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;16635&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1140.74&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;296&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACO PASTOR SIN COSTRA&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;14259.26&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;16632&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;4166.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;4166.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;16633&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;16634&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3055.55&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3055.55&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;16635&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;39200&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;36296.29&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;2903.70&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003527&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;36296.30&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;36296.30&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;39200.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;2903.70&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;39200.00&lt;/total&gt;&lt;montoletra&gt;TREINTA Y NUEVE MIL DOSCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003527&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;2,903.70&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;15,555.55&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1727&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7281&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;16813&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2903.70&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;36296.30&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;208&lt;/identificacionproductos&gt;&lt;descripcion&gt;CHAUFA MIXTO&lt;/descripcion&gt;&lt;precioUnitario&gt;51851.85&lt;/precioUnitario&gt;&lt;importe&gt;36296.30&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;16813&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;15555.55&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;15555.55&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;39200&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;36296.30&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;2903.70&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003528&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;9722.22&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;9722.22&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;10500.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;777.78&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;10500.00&lt;/total&gt;&lt;montoletra&gt;DIEZ MIL QUINIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003528&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;777.78&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;4,166.66&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1729&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7282&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;16816&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;777.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9722.22&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;34&lt;/identificacionproductos&gt;&lt;descripcion&gt;CORONA&lt;/descripcion&gt;&lt;precioUnitario&gt;13888.88&lt;/precioUnitario&gt;&lt;importe&gt;9722.22&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;16816&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;4166.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;4166.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;10500&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;9722.22&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;777.78&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003576&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;799074.05&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;799074.05&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;862999.97&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;63925.92&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;942907.37&lt;/total&gt;&lt;montoletra&gt;NOVECIENTOS CUARENTA Y DOS MIL NOVECIENTOS SIETE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;79907.40&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003576&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;63,925.92&lt;/extra5&gt;&lt;extra6&gt;79,907.40&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;0,00&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1784&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7330&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17262&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;666.67&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;8333.33&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;349&lt;/identificacionproductos&gt;&lt;descripcion&gt;LIMONADA NATURAL&lt;/descripcion&gt;&lt;precioUnitario&gt;8333.33&lt;/precioUnitario&gt;&lt;importe&gt;8333.33&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17263&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;45925.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;574074.1&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;112&lt;/identificacionproductos&gt;&lt;descripcion&gt;BT PATRON CRISTALINO&lt;/descripcion&gt;&lt;precioUnitario&gt;574074.10&lt;/precioUnitario&gt;&lt;importe&gt;574074.1&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17265&lt;/idConcepto&gt;&lt;cantidad&gt;2&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1185.18&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14814.8&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;30&lt;/identificacionproductos&gt;&lt;descripcion&gt;COCA COLA ZERO&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;14814.8&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17270&lt;/idConcepto&gt;&lt;cantidad&gt;2&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;3259.26&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;40740.74&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;240&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACO DE CARNITAS COSTR&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;40740.74&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17271&lt;/idConcepto&gt;&lt;cantidad&gt;2&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2962.96&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;37037.02&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;244&lt;/identificacionproductos&gt;&lt;descripcion&gt;PORK BELLY BAO&lt;/descripcion&gt;&lt;precioUnitario&gt;18518.51&lt;/precioUnitario&gt;&lt;importe&gt;37037.02&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17272&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;5111.11&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;63888.88&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;251&lt;/identificacionproductos&gt;&lt;descripcion&gt;KIINTI&lt;/descripcion&gt;&lt;precioUnitario&gt;63888.88&lt;/precioUnitario&gt;&lt;importe&gt;63888.88&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17273&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;4814.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;60185.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;227&lt;/identificacionproductos&gt;&lt;descripcion&gt;PULPO AL ACHIOTE&lt;/descripcion&gt;&lt;precioUnitario&gt;60185.18&lt;/precioUnitario&gt;&lt;importe&gt;60185.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;&lt;Cargos&gt;&lt;Car&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;razon&gt;Propina 10%&lt;/razon&gt;&lt;codcargo&gt;&lt;/codcargo&gt;&lt;porcentaje&gt;100.00&lt;/porcentaje&gt;&lt;basecargo&gt;79907.40&lt;/basecargo&gt;&lt;importe&gt;79907.40&lt;/importe&gt;&lt;/Car&gt;&lt;/Cargos&gt;NULLNULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;942907&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;799074.05&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;63925.92&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003593&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;22685.18&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;22685.18&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;24499.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1814.81&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;24499.99&lt;/total&gt;&lt;montoletra&gt;VEINTICUATRO MIL CUATROCIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003593&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,814.81&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;9,722.22&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1805&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7347&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17440&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1814.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;22685.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;205&lt;/identificacionproductos&gt;&lt;descripcion&gt;GUACAMOLE PORK BELLY&lt;/descripcion&gt;&lt;precioUnitario&gt;32407.40&lt;/precioUnitario&gt;&lt;importe&gt;22685.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;17440&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;9722.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;9722.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;24500&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;22685.18&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1814.81&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003611&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;90092.58&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;90092.58&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;97299.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;7207.41&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;97299.99&lt;/total&gt;&lt;montoletra&gt;NOVENTA Y SIETE MIL DOSCIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003611&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;7,207.40&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;64,537.02&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1825&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7365&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17686&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1659.26&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;20740.73&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;204&lt;/identificacionproductos&gt;&lt;descripcion&gt;ESQUITES COYOACAN&lt;/descripcion&gt;&lt;precioUnitario&gt;29629.62&lt;/precioUnitario&gt;&lt;importe&gt;20740.73&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17688&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2851.85&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;35648.15&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;247&lt;/identificacionproductos&gt;&lt;descripcion&gt;ANTICUCHO LOMO&lt;/descripcion&gt;&lt;precioUnitario&gt;50925.92&lt;/precioUnitario&gt;&lt;importe&gt;35648.15&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17689&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2333.33&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;29166.66&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;225&lt;/identificacionproductos&gt;&lt;descripcion&gt;CEVICHE CARRETILLERO&lt;/descripcion&gt;&lt;precioUnitario&gt;41666.66&lt;/precioUnitario&gt;&lt;importe&gt;29166.66&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17741&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;362.96&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;4537.04&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;15&lt;/identificacionproductos&gt;&lt;descripcion&gt;AMERICANO&lt;/descripcion&gt;&lt;precioUnitario&gt;6481.48&lt;/precioUnitario&gt;&lt;importe&gt;4537.04&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;17684&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;25925.92&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;25925.92&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 100%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;17686&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;8888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;8888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;17688&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;15277.77&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;15277.77&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;17689&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;12500.00&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;12500.00&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;17741&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;1944.44&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;1944.44&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;97300&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;90092.58&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;7207.40&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003622&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;36296.30&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;36296.30&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;39200.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;2903.70&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;39200.00&lt;/total&gt;&lt;montoletra&gt;TREINTA Y NUEVE MIL DOSCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003622&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;2,903.70&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;15,555.55&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1836&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7376&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;17795&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2903.70&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;36296.30&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;208&lt;/identificacionproductos&gt;&lt;descripcion&gt;CHAUFA MIXTO&lt;/descripcion&gt;&lt;precioUnitario&gt;51851.85&lt;/precioUnitario&gt;&lt;importe&gt;36296.30&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;17795&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;15555.55&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;15555.55&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;39200&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;36296.30&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;2903.70&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003648&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;14259.26&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;14259.26&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;15400.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1140.74&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;15400.00&lt;/total&gt;&lt;montoletra&gt;QUINCE MIL CUATROCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003648&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,140.74&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;6,111.11&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1864&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7402&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;18083&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1140.74&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;244&lt;/identificacionproductos&gt;&lt;descripcion&gt;PORK BELLY BAO&lt;/descripcion&gt;&lt;precioUnitario&gt;20370.37&lt;/precioUnitario&gt;&lt;importe&gt;14259.26&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;18083&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6111.11&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6111.11&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;15400&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;14259.26&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1140.74&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003667&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;46666.66&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;46666.66&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;50399.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;3733.33&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;50399.99&lt;/total&gt;&lt;montoletra&gt;CINCUENTA MIL TRESCIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003667&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;3,733.33&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;20,000.00&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1883&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7421&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;18271&lt;/idConcepto&gt;&lt;cantidad&gt;3&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;3733.33&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;46666.66&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;256&lt;/identificacionproductos&gt;&lt;descripcion&gt;PASTEL DE CHOCOLATE&lt;/descripcion&gt;&lt;precioUnitario&gt;22222.22&lt;/precioUnitario&gt;&lt;importe&gt;46666.66&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;18271&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;20000&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;20000&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;50400&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;46666.66&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;3733.33&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003702&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;15555.55&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;15555.55&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;16799.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1244.44&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;16799.99&lt;/total&gt;&lt;montoletra&gt;DIECISEIS MIL SETECIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003702&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,244.44&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;6,666.67&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1918&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7456&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;18647&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1244.44&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;15555.55&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;256&lt;/identificacionproductos&gt;&lt;descripcion&gt;PASTEL DE CHOCOLATE&lt;/descripcion&gt;&lt;precioUnitario&gt;22222.22&lt;/precioUnitario&gt;&lt;importe&gt;15555.55&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;18647&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;6666.67&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;6666.67&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;16800&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;15555.55&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1244.44&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003743&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;16851.85&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;16851.85&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;18200.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1348.15&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;18200.00&lt;/total&gt;&lt;montoletra&gt;DIECIOCHO MIL DOSCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003743&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,348.15&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;7,222.22&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1965&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7497&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;19117&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1348.15&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;16851.85&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;242&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACO DE LOMO COSTRA&lt;/descripcion&gt;&lt;precioUnitario&gt;24074.07&lt;/precioUnitario&gt;&lt;importe&gt;16851.85&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;19117&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;7222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;7222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;18200&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;16851.85&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1348.15&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003768&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;18148.14&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;18148.14&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;19600.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;1451.86&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;19600.00&lt;/total&gt;&lt;montoletra&gt;DIECINUEVE MIL SEISCIENTOS PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003768&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;1,451.86&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;7,777.78&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1990&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7522&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;19398&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;239&lt;/identificacionproductos&gt;&lt;descripcion&gt;EMPANADA DE LOMO&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;19692&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;239&lt;/identificacionproductos&gt;&lt;descripcion&gt;EMPANADA DE LOMO&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;19398&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;19692&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;19600&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;18148.14&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;1451.86&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003769&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;5185.18&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;5185.18&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;5599.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;414.81&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;5599.99&lt;/total&gt;&lt;montoletra&gt;CINCO MIL QUINIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003769&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;414.81&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;2,222.22&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;1991&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7523&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;19399&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;414.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;351&lt;/identificacionproductos&gt;&lt;descripcion&gt;GINGER&lt;/descripcion&gt;&lt;precioUnitario&gt;7407.40&lt;/precioUnitario&gt;&lt;importe&gt;5185.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;19399&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2222.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2222.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;5600&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;5185.18&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;414.81&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003799&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;45370.36&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;45370.36&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;48999.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;3629.63&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;48999.99&lt;/total&gt;&lt;montoletra&gt;CUARENTA Y OCHO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003799&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;3,629.63&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;19,444.44&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;2021&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7553&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;19685&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2177.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;27222.22&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;212&lt;/identificacionproductos&gt;&lt;descripcion&gt;DOS LUGARES&lt;/descripcion&gt;&lt;precioUnitario&gt;38888.88&lt;/precioUnitario&gt;&lt;importe&gt;27222.22&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;19689&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1451.85&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;18148.14&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;243&lt;/identificacionproductos&gt;&lt;descripcion&gt;TACO BAJA CALIFORNIA&lt;/descripcion&gt;&lt;precioUnitario&gt;25925.92&lt;/precioUnitario&gt;&lt;importe&gt;18148.14&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;19685&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;11666.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;11666.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;19689&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;7777.78&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;7777.78&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;49000&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;45370.36&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;3629.63&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003876&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;60925.92&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;60925.92&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;65799.99&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;4874.07&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;65799.99&lt;/total&gt;&lt;montoletra&gt;SESENTA Y CINCO MIL SETECIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003876&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;4,874.07&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;26,111.11&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;2102&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7630&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;20575&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1970.37&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;24629.63&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;194&lt;/identificacionproductos&gt;&lt;descripcion&gt;PARAISO ANDINO&lt;/descripcion&gt;&lt;precioUnitario&gt;35185.18&lt;/precioUnitario&gt;&lt;importe&gt;24629.63&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;20578&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2903.70&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;36296.29&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;208&lt;/identificacionproductos&gt;&lt;descripcion&gt;CHAUFA MIXTO&lt;/descripcion&gt;&lt;precioUnitario&gt;51851.85&lt;/precioUnitario&gt;&lt;importe&gt;36296.29&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;20575&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;10555.55&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;10555.55&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;20578&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;15555.56&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;15555.56&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;65800&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;60925.92&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;4874.07&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003905&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;81018.50&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;81018.50&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;87499.98&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;6481.48&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;87499.98&lt;/total&gt;&lt;montoletra&gt;OCHENTA Y SIETE MIL CUATROCIENTOS NOVENTA Y NUEVE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;0.00&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003905&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;6,481.49&lt;/extra5&gt;&lt;extra6&gt;0.00&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;55,092.60&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;2131&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7659&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;20851&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2177.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;27222.21&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;201&lt;/identificacionproductos&gt;&lt;descripcion&gt;TIRADITO KON PASIÓN&lt;/descripcion&gt;&lt;precioUnitario&gt;38888.88&lt;/precioUnitario&gt;&lt;importe&gt;27222.21&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;20865&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;239&lt;/identificacionproductos&gt;&lt;descripcion&gt;EMPANADA DE LOMO&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;20883&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;3577.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;44722.21&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;227&lt;/identificacionproductos&gt;&lt;descripcion&gt;PULPO AL ACHIOTE&lt;/descripcion&gt;&lt;precioUnitario&gt;63888.88&lt;/precioUnitario&gt;&lt;importe&gt;44722.21&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;NULL&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;20891&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;20370.37&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;20370.37&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 100%&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;20851&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;11666.67&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;11666.67&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;20865&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;20883&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;19166.67&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;19166.67&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;87500&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;81018.49&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;6481.49&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003910&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;9074.07&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;9074.07&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;9800.00&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;725.93&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;10707.41&lt;/total&gt;&lt;montoletra&gt;DIEZ MIL SETECIENTOS SIETE PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;907.41&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003910&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;725.93&lt;/extra5&gt;&lt;extra6&gt;907.41&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;3,888.89&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;2136&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7664&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;20893&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;239&lt;/identificacionproductos&gt;&lt;descripcion&gt;EMPANADA DE LOMO&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;&lt;Cargos&gt;&lt;Car&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;razon&gt;Propina 10%&lt;/razon&gt;&lt;codcargo&gt;&lt;/codcargo&gt;&lt;porcentaje&gt;100.00&lt;/porcentaje&gt;&lt;basecargo&gt;907.41&lt;/basecargo&gt;&lt;importe&gt;907.41&lt;/importe&gt;&lt;/Car&gt;&lt;/Cargos&gt;&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;20893&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;10707&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;725.93&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Factura&gt;&lt;Encabezado&gt;&lt;llavecomprobante&gt;1&lt;/llavecomprobante&gt;&lt;nitemisor&gt;900452021&lt;/nitemisor&gt;&lt;codSucursal&gt;900452021&lt;/codSucursal&gt;&lt;ciiuEmisor&gt;5611&lt;/ciiuEmisor&gt;&lt;tiporeceptor&gt;2&lt;/tiporeceptor&gt;&lt;tipoDocRec&gt;13&lt;/tipoDocRec&gt;&lt;nitreceptor&gt;222222222222&lt;/nitreceptor&gt;&lt;digitoverificacion&gt;9&lt;/digitoverificacion&gt;&lt;obligacionesfiscalesreceptor&gt;R-99-PN&lt;/obligacionesfiscalesreceptor&gt;&lt;tributoreceptor&gt;ZA&lt;/tributoreceptor&gt;&lt;regimenreceptor&gt;49&lt;/regimenreceptor&gt;&lt;nombrereceptor&gt;CONSUMIDOR&lt;/nombrereceptor&gt;&lt;segnombrereceptor&gt;&lt;/segnombrereceptor&gt;&lt;apellidosreceptor&gt;FINAL&lt;/apellidosreceptor&gt;&lt;nombrecomercialreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecomercialreceptor&gt;&lt;paisreceptor&gt;CO&lt;/paisreceptor&gt;&lt;codigodepartamento&gt;11&lt;/codigodepartamento&gt;&lt;departamentoreceptor&gt;Bogotá&lt;/departamentoreceptor&gt;&lt;codigociudadreceptor&gt;11001&lt;/codigociudadreceptor&gt;&lt;ciudadreceptor&gt;BOGOTÁ, D.C.&lt;/ciudadreceptor&gt;&lt;codigopostal&gt;000000&lt;/codigopostal&gt;&lt;direccionreceptor&gt;calle 66 #4a-19&lt;/direccionreceptor&gt;&lt;telefonoreceptor&gt;3112288780&lt;/telefonoreceptor&gt;&lt;telefonomovilreceptor&gt;&lt;/telefonomovilreceptor&gt;&lt;mailreceptor&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptor&gt;&lt;mailreceptorcontacto&gt;contabilidadmolagroupsas@gmail.com&lt;/mailreceptorcontacto&gt;&lt;nombrecontactoreceptor&gt;CONSUMIDOR FINAL&lt;/nombrecontactoreceptor&gt;&lt;tipocomprobante&gt;01&lt;/tipocomprobante&gt;&lt;noresolucion&gt;18760000001&lt;/noresolucion&gt;&lt;prefijo&gt;SETP&lt;/prefijo&gt;&lt;folio&gt;990003953&lt;/folio&gt;&lt;fecha&gt;2025-05-30&lt;/fecha&gt;&lt;hora&gt;13:07:25&lt;/hora&gt;&lt;xslt&gt;1&lt;/xslt&gt;&lt;moneda&gt;COP&lt;/moneda&gt;&lt;subtotal&gt;174351.81&lt;/subtotal&gt;&lt;metodopago&gt;1&lt;/metodopago&gt;&lt;mediopago&gt;71&lt;/mediopago&gt;&lt;fechavencimiento&gt;2025-05-30&lt;/fechavencimiento&gt;&lt;terminospago&gt;0&lt;/terminospago&gt;&lt;baseimpuesto&gt;174351.81&lt;/baseimpuesto&gt;&lt;totalsindescuento&gt;188299.95&lt;/totalsindescuento&gt;&lt;totaldescuentos&gt;0.00&lt;/totaldescuentos&gt;&lt;totalimpuestos&gt;13948.14&lt;/totalimpuestos&gt;&lt;totalimpuestosretenidos&gt;0.00&lt;/totalimpuestosretenidos&gt;&lt;total&gt;205735.13&lt;/total&gt;&lt;montoletra&gt;DOSCIENTOS CINCO MIL SETECIENTOS TREINTA Y CINCO PESOS &lt;/montoletra&gt;&lt;textolibre&gt;&lt;/textolibre&gt;&lt;totalcargos&gt;17435.18&lt;/totalcargos&gt;&lt;tipoOpera&gt;10&lt;/tipoOpera&gt;&lt;totalAnticipo&gt;0.00&lt;/totalAnticipo&gt;&lt;ncidfact&gt;&lt;/ncidfact&gt;&lt;nccod&gt;&lt;/nccod&gt;&lt;nciddoc&gt;SETP990003953&lt;/nciddoc&gt;&lt;ncuuid&gt;&lt;/ncuuid&gt;&lt;ncfecha&gt;&lt;/ncfecha&gt;&lt;ndidfact&gt;&lt;/ndidfact&gt;&lt;ndcod&gt;&lt;/ndcod&gt;&lt;ndiddoc&gt;&lt;/ndiddoc&gt;&lt;nduuid&gt;&lt;/nduuid&gt;&lt;ndfecha&gt;&lt;/ndfecha&gt;&lt;extra1&gt;DOS LUGARES&lt;/extra1&gt;&lt;extra2&gt;calle 66 #4a-19&lt;/extra2&gt;&lt;extra3&gt;3112288780&lt;/extra3&gt;&lt;extra4&gt;contabilidadmolagroupsas@gmail.com&lt;/extra4&gt;&lt;extra5&gt;13,948.15&lt;/extra5&gt;&lt;extra6&gt;17,435.18&lt;/extra6&gt;&lt;extra7&gt;0.00&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;Bogota&lt;/extra9&gt;&lt;extra10&gt;0.00&lt;/extra10&gt;&lt;extra11&gt;74,722.20&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;extra16&gt;&lt;/extra16&gt;&lt;extra17&gt;&lt;/extra17&gt;&lt;extra18&gt;&lt;/extra18&gt;&lt;idContrato&gt;&lt;/idContrato&gt;&lt;tipoContrato&gt;&lt;/tipoContrato&gt;&lt;numMatricula&gt;&lt;/numMatricula&gt;&lt;numMatriculaMan&gt;&lt;/numMatriculaMan&gt;&lt;nombreMandatario&gt;&lt;/nombreMandatario&gt;&lt;nitDV&gt;&lt;/nitDV&gt;&lt;tiposResponsabilidades&gt;&lt;/tiposResponsabilidades&gt;&lt;numeroConformidad&gt;&lt;/numeroConformidad&gt;&lt;numeroPedido&gt;&lt;/numeroPedido&gt;&lt;folioPOS&gt;2183&lt;/folioPOS&gt;&lt;checkid&gt;&lt;/checkid&gt;&lt;IdentificadorOrden&gt;7707&lt;/IdentificadorOrden&gt;&lt;BrandId&gt;1&lt;/BrandId&gt;&lt;StoreId&gt;7&lt;/StoreId&gt;&lt;ordenCompra&gt;&lt;/ordenCompra&gt;&lt;hojaEntrada&gt;&lt;/hojaEntrada&gt;&lt;centroOperacion&gt;&lt;/centroOperacion&gt;&lt;/Encabezado&gt;&lt;Detalle&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;21306&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;725.93&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9074.07&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;328&lt;/identificacionproductos&gt;&lt;descripcion&gt;CHICHA MORADA&lt;/descripcion&gt;&lt;precioUnitario&gt;12962.96&lt;/precioUnitario&gt;&lt;importe&gt;9074.07&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;21307&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;622.22&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;7777.78&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;213&lt;/identificacionproductos&gt;&lt;descripcion&gt;SODA DE JAMICA&lt;/descripcion&gt;&lt;precioUnitario&gt;11111.11&lt;/precioUnitario&gt;&lt;importe&gt;7777.78&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;21308&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;518.52&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;6481.48&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;29&lt;/identificacionproductos&gt;&lt;descripcion&gt;COCA COLA REGULAR&lt;/descripcion&gt;&lt;precioUnitario&gt;9259.25&lt;/precioUnitario&gt;&lt;importe&gt;6481.48&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;21309&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2177.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;27222.22&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;212&lt;/identificacionproductos&gt;&lt;descripcion&gt;DOS LUGARES&lt;/descripcion&gt;&lt;precioUnitario&gt;38888.88&lt;/precioUnitario&gt;&lt;importe&gt;27222.22&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;21326&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;2385.19&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;29814.81&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;199&lt;/identificacionproductos&gt;&lt;descripcion&gt;CEVICHE BOTE MIXTO&lt;/descripcion&gt;&lt;precioUnitario&gt;42592.59&lt;/precioUnitario&gt;&lt;importe&gt;29814.81&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;21340&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1451.85&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;18148.14&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;378&lt;/identificacionproductos&gt;&lt;descripcion&gt;MENU INFANTIL LOMO&lt;/descripcion&gt;&lt;precioUnitario&gt;25925.92&lt;/precioUnitario&gt;&lt;importe&gt;18148.14&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;21342&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1814.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;22685.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;205&lt;/identificacionproductos&gt;&lt;descripcion&gt;GUACAMOLE PORK BELLY&lt;/descripcion&gt;&lt;precioUnitario&gt;32407.40&lt;/precioUnitario&gt;&lt;importe&gt;22685.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;21343&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1659.26&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;20740.73&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;204&lt;/identificacionproductos&gt;&lt;descripcion&gt;ESQUITES COYOACAN&lt;/descripcion&gt;&lt;precioUnitario&gt;29629.62&lt;/precioUnitario&gt;&lt;importe&gt;20740.73&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;21390&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;1814.81&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;22685.18&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;226&lt;/identificacionproductos&gt;&lt;descripcion&gt;TOSTADAS DE ATUN&lt;/descripcion&gt;&lt;precioUnitario&gt;32407.40&lt;/precioUnitario&gt;&lt;importe&gt;22685.18&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;Det&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idConcepto&gt;21391&lt;/idConcepto&gt;&lt;cantidad&gt;1&lt;/cantidad&gt;&lt;unidadmedida&gt;94&lt;/unidadmedida&gt;&lt;impuestolinea&gt;777.78&lt;/impuestolinea&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;tipo&gt;04&lt;/tipo&gt;&lt;baseimpuestos&gt;9722.22&lt;/baseimpuestos&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;subpartidaarancelaria&gt;&lt;/subpartidaarancelaria&gt;&lt;MultipleImpuesto&gt;false&lt;/MultipleImpuesto&gt;&lt;identificacionproductos&gt;314&lt;/identificacionproductos&gt;&lt;descripcion&gt;ADICION TOSTADA ATUN&lt;/descripcion&gt;&lt;precioUnitario&gt;13888.88&lt;/precioUnitario&gt;&lt;importe&gt;9722.22&lt;/importe&gt;&lt;importemuestra&gt;0.00&lt;/importemuestra&gt;&lt;tipomuestra&gt;&lt;/tipomuestra&gt;&lt;adicionalInfo&gt;&lt;/adicionalInfo&gt;&lt;articulocubierto&gt;0&lt;/articulocubierto&gt;&lt;extra1&gt;&lt;/extra1&gt;&lt;extra2&gt;&lt;/extra2&gt;&lt;extra3&gt;&lt;/extra3&gt;&lt;extra4&gt;&lt;/extra4&gt;&lt;extra5&gt;&lt;/extra5&gt;&lt;extra6&gt;&lt;/extra6&gt;&lt;extra7&gt;&lt;/extra7&gt;&lt;extra8&gt;&lt;/extra8&gt;&lt;extra9&gt;&lt;/extra9&gt;&lt;extra10&gt;&lt;/extra10&gt;&lt;extra11&gt;&lt;/extra11&gt;&lt;extra12&gt;&lt;/extra12&gt;&lt;extra13&gt;&lt;/extra13&gt;&lt;extra14&gt;&lt;/extra14&gt;&lt;extra15&gt;&lt;/extra15&gt;&lt;/Det&gt;&lt;/Detalle&gt;&lt;Cargos&gt;&lt;Car&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;razon&gt;Propina 10%&lt;/razon&gt;&lt;codcargo&gt;&lt;/codcargo&gt;&lt;porcentaje&gt;100.00&lt;/porcentaje&gt;&lt;basecargo&gt;17435.18&lt;/basecargo&gt;&lt;importe&gt;17435.18&lt;/importe&gt;&lt;/Car&gt;&lt;/Cargos&gt;&lt;DescuentosLinea&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;21306&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;21307&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;3333.33&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;3333.33&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;21308&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;2777.77&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;2777.77&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;21309&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;11666.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;11666.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;21326&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;12777.78&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;12777.78&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;21340&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;7777.78&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;7777.78&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;21342&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;9722.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;9722.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;21343&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;8888.89&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;8888.89&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;21390&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;9722.22&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;9722.22&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;detDesc&gt;&lt;idlineaDescuento&gt;21391&lt;/idlineaDescuento&gt;&lt;basedescuentodet&gt;4166.66&lt;/basedescuentodet&gt;&lt;importedescuentodet&gt;4166.66&lt;/importedescuentodet&gt;&lt;razondescuentodet&gt;Descuento 30% o Valor&lt;/razondescuentodet&gt;&lt;porcentajedescdet&gt;100.00&lt;/porcentajedescdet&gt;&lt;/detDesc&gt;&lt;/DescuentosLinea&gt;NULL&lt;FormaPago&gt;&lt;Pago&gt;&lt;descripcion&gt;Credito de la Casa&lt;/descripcion&gt;&lt;identificacionpago&gt;99&lt;/identificacionpago&gt;&lt;valor&gt;205735&lt;/valor&gt;&lt;/Pago&gt;&lt;/FormaPago&gt;NULL&lt;Impuestos&gt;&lt;Imp&gt;&lt;llaveComprobante&gt;1&lt;/llaveComprobante&gt;&lt;idImpuesto&gt;1&lt;/idImpuesto&gt;&lt;baseimpuestos&gt;174351.81&lt;/baseimpuestos&gt;&lt;tasa&gt;8.00&lt;/tasa&gt;&lt;UnidadMedidaBase&gt;0.00&lt;/UnidadMedidaBase&gt;&lt;ValorporUnidad&gt;0.00&lt;/ValorporUnidad&gt;&lt;tipoImpuesto&gt;04&lt;/tipoImpuesto&gt;&lt;importe&gt;13948.15&lt;/importe&gt;&lt;redondeo&gt;&lt;/redondeo&gt;&lt;/Imp&gt;&lt;/Impuestos&gt;&lt;/Factura&gt;</t>
+  </si>
+  <si>
+    <t>FVM</t>
+  </si>
+  <si>
+    <t>folio</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>impuesto</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Resolucion</t>
+  </si>
+  <si>
+    <t>NIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3225,8 +3372,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3239,8 +3406,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3248,17 +3421,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3591,64 +3807,1086 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F07C870-EE85-45CC-A34A-8D38994396B9}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="64.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2">
+        <v>133</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45725</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I2">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B3">
+        <v>134</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45728</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I3">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B4">
+        <v>135</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45729</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I4">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C2">
-        <v>4434</v>
-      </c>
-      <c r="D2" s="2">
-        <v>18764077890286</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45747</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
+      <c r="B5">
+        <v>136</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45729</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I5">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B6">
+        <v>137</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45732</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I6">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B7">
+        <v>138</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45737</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I7">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B8">
+        <v>139</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45737</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I8">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B9">
+        <v>140</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45737</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I9">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B10">
+        <v>141</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45737</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I10">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B11">
+        <v>142</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45737</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I11">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B12">
+        <v>143</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45738</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I12">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B13">
+        <v>144</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45738</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I13">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B14">
+        <v>145</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45738</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I14">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B15">
+        <v>146</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45742</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I15">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B16">
+        <v>147</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45743</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I16">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B17">
+        <v>148</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45744</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I17">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B18">
+        <v>149</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45745</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I18">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B19">
+        <v>150</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45748</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I19">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B20">
+        <v>151</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45749</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I20">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B21">
+        <v>152</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45750</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I21">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B22">
+        <v>153</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45752</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I22">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B23">
+        <v>154</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45753</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I23">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B24">
+        <v>155</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45754</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I24">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B25">
+        <v>156</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45754</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I25">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B26">
+        <v>157</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45755</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I26">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B27">
+        <v>158</v>
+      </c>
+      <c r="C27" s="6">
+        <v>45757</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I27">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B28">
+        <v>159</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45761</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I28">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B29">
+        <v>160</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45761</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I29">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B30">
+        <v>161</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45761</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I30">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B31">
+        <v>162</v>
+      </c>
+      <c r="C31" s="6">
+        <v>45761</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I31">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B32">
+        <v>163</v>
+      </c>
+      <c r="C32" s="6">
+        <v>45763</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I32">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B33">
+        <v>164</v>
+      </c>
+      <c r="C33" s="6">
+        <v>45764</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I33">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B34">
+        <v>165</v>
+      </c>
+      <c r="C34" s="6">
+        <v>45765</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I34">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B35">
+        <v>166</v>
+      </c>
+      <c r="C35" s="6">
+        <v>45765</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I35">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B36">
+        <v>167</v>
+      </c>
+      <c r="C36" s="6">
+        <v>45766</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I36">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B37">
+        <v>168</v>
+      </c>
+      <c r="C37" s="6">
+        <v>45767</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I37">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B38">
+        <v>169</v>
+      </c>
+      <c r="C38" s="6">
+        <v>45769</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I38">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B39">
+        <v>170</v>
+      </c>
+      <c r="C39" s="6">
+        <v>45771</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I39">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B40">
+        <v>171</v>
+      </c>
+      <c r="C40" s="6">
+        <v>45772</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I40">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B41">
+        <v>172</v>
+      </c>
+      <c r="C41" s="6">
+        <v>45772</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I41">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B42">
+        <v>173</v>
+      </c>
+      <c r="C42" s="6">
+        <v>45772</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I42">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B43">
+        <v>174</v>
+      </c>
+      <c r="C43" s="6">
+        <v>45775</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I43">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B44">
+        <v>175</v>
+      </c>
+      <c r="C44" s="6">
+        <v>45776</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I44">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B45">
+        <v>176</v>
+      </c>
+      <c r="C45" s="6">
+        <v>45776</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I45">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B46">
+        <v>177</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45777</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="2">
+        <v>18764088504458</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I46">
+        <v>901876859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3665,9 +4903,9 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +4991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>380215</v>
       </c>
@@ -3839,7 +5077,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>380053</v>
       </c>
@@ -3925,7 +5163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>380437</v>
       </c>
@@ -4011,7 +5249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>380594</v>
       </c>
@@ -4097,7 +5335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>381317</v>
       </c>
@@ -4183,7 +5421,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>381417</v>
       </c>
@@ -4269,7 +5507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>381440</v>
       </c>
@@ -4355,7 +5593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>380985</v>
       </c>
@@ -4441,7 +5679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>381682</v>
       </c>
@@ -4527,7 +5765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>382689</v>
       </c>
@@ -4613,7 +5851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>383411</v>
       </c>
@@ -4699,7 +5937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>363427</v>
       </c>
@@ -4785,7 +6023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>363967</v>
       </c>
@@ -4871,7 +6109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>364071</v>
       </c>
@@ -4957,7 +6195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>364302</v>
       </c>
@@ -5043,7 +6281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>364366</v>
       </c>
@@ -5129,7 +6367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>364481</v>
       </c>
@@ -5215,7 +6453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>364637</v>
       </c>
@@ -5301,7 +6539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>364723</v>
       </c>
@@ -5387,7 +6625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>364977</v>
       </c>
@@ -5473,7 +6711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>365054</v>
       </c>
@@ -5559,7 +6797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>365598</v>
       </c>
@@ -5645,7 +6883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>366053</v>
       </c>
@@ -5731,7 +6969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>366751</v>
       </c>
@@ -5817,7 +7055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>378394</v>
       </c>
@@ -5903,7 +7141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>378403</v>
       </c>
@@ -5989,7 +7227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>378443</v>
       </c>
@@ -6075,7 +7313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>378533</v>
       </c>
@@ -6161,7 +7399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>379169</v>
       </c>
@@ -6247,7 +7485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>379236</v>
       </c>
@@ -6333,7 +7571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>379668</v>
       </c>
@@ -6419,7 +7657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>352311</v>
       </c>
@@ -6505,7 +7743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>352490</v>
       </c>
@@ -6591,7 +7829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>352737</v>
       </c>
@@ -6677,7 +7915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>352881</v>
       </c>
@@ -6763,7 +8001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>352914</v>
       </c>
@@ -6849,7 +8087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>353084</v>
       </c>
@@ -6935,7 +8173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>353530</v>
       </c>
@@ -7021,7 +8259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>353619</v>
       </c>
@@ -7107,7 +8345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>353757</v>
       </c>
@@ -7193,7 +8431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>353839</v>
       </c>
@@ -7279,7 +8517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>354691</v>
       </c>
@@ -7365,7 +8603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>354946</v>
       </c>
@@ -7451,7 +8689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>355010</v>
       </c>
@@ -7537,7 +8775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>355141</v>
       </c>
@@ -7623,7 +8861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>355226</v>
       </c>
@@ -7709,7 +8947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>355411</v>
       </c>
@@ -7795,7 +9033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>355497</v>
       </c>
@@ -7881,7 +9119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>356093</v>
       </c>
@@ -7967,7 +9205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>356493</v>
       </c>
@@ -8053,7 +9291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>356573</v>
       </c>
@@ -8139,7 +9377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>356670</v>
       </c>
@@ -8225,7 +9463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>356717</v>
       </c>
@@ -8311,7 +9549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>356773</v>
       </c>
@@ -8397,7 +9635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>356883</v>
       </c>
@@ -8483,7 +9721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>356930</v>
       </c>
@@ -8569,7 +9807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>357075</v>
       </c>
@@ -8655,7 +9893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>357137</v>
       </c>
@@ -8741,7 +9979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>357236</v>
       </c>
@@ -8827,7 +10065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>357298</v>
       </c>
@@ -8913,7 +10151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>357529</v>
       </c>
@@ -8999,7 +10237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>357876</v>
       </c>
@@ -9085,7 +10323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>357952</v>
       </c>
@@ -9171,7 +10409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>358203</v>
       </c>
@@ -9257,7 +10495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>358271</v>
       </c>
@@ -9343,7 +10581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>358305</v>
       </c>
@@ -9429,7 +10667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>358751</v>
       </c>
@@ -9515,7 +10753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>358859</v>
       </c>
@@ -9601,7 +10839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>359017</v>
       </c>
@@ -9687,7 +10925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>359274</v>
       </c>
@@ -9773,7 +11011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>359938</v>
       </c>
@@ -9859,7 +11097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>360286</v>
       </c>
@@ -9945,7 +11183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>360330</v>
       </c>
@@ -10031,7 +11269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>360544</v>
       </c>
@@ -10117,7 +11355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>360594</v>
       </c>
@@ -10203,7 +11441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>360928</v>
       </c>
@@ -10289,7 +11527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>361179</v>
       </c>
@@ -10375,7 +11613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>362245</v>
       </c>
@@ -10461,7 +11699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>362366</v>
       </c>
@@ -10547,7 +11785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>362670</v>
       </c>
@@ -10633,7 +11871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>362839</v>
       </c>
@@ -10719,7 +11957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>384119</v>
       </c>
@@ -10805,7 +12043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>384316</v>
       </c>
@@ -10891,7 +12129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>384680</v>
       </c>
@@ -10977,7 +12215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>386400</v>
       </c>
@@ -11063,7 +12301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>387225</v>
       </c>
@@ -11149,7 +12387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>387330</v>
       </c>
@@ -11235,7 +12473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>387424</v>
       </c>
@@ -11321,7 +12559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>387522</v>
       </c>
@@ -11407,7 +12645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>387714</v>
       </c>
@@ -11493,7 +12731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>387795</v>
       </c>
@@ -11579,7 +12817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>387874</v>
       </c>
@@ -11665,7 +12903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>388018</v>
       </c>
@@ -11751,7 +12989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>388096</v>
       </c>
@@ -11837,7 +13075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>388255</v>
       </c>
@@ -11923,7 +13161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>388517</v>
       </c>
@@ -12009,7 +13247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>388765</v>
       </c>
@@ -12095,7 +13333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>388823</v>
       </c>
@@ -12181,7 +13419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>389919</v>
       </c>
@@ -12267,7 +13505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>392544</v>
       </c>
@@ -12353,7 +13591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>392914</v>
       </c>
@@ -12439,7 +13677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>393297</v>
       </c>
@@ -12525,7 +13763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>393674</v>
       </c>
@@ -12611,7 +13849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>393897</v>
       </c>
@@ -12697,7 +13935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>394952</v>
       </c>
@@ -12783,7 +14021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>394299</v>
       </c>
@@ -12869,7 +14107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>395722</v>
       </c>
@@ -12955,7 +14193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>396228</v>
       </c>
@@ -13041,7 +14279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>396598</v>
       </c>
@@ -13127,7 +14365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>397018</v>
       </c>
@@ -13213,7 +14451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>397048</v>
       </c>
@@ -13299,7 +14537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>397287</v>
       </c>
@@ -13385,7 +14623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>397303</v>
       </c>
@@ -13471,7 +14709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>397471</v>
       </c>
@@ -13557,7 +14795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>397587</v>
       </c>
@@ -13643,7 +14881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>397678</v>
       </c>
@@ -13729,7 +14967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>397792</v>
       </c>
@@ -13815,7 +15053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>397856</v>
       </c>
@@ -13901,7 +15139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>397914</v>
       </c>
@@ -13987,7 +15225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>397995</v>
       </c>
@@ -14073,7 +15311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>398280</v>
       </c>
@@ -14159,7 +15397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>398288</v>
       </c>
@@ -14245,7 +15483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>398295</v>
       </c>
@@ -14331,7 +15569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>398300</v>
       </c>
@@ -14417,7 +15655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>398306</v>
       </c>
@@ -14503,7 +15741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>398329</v>
       </c>
@@ -14589,7 +15827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>398343</v>
       </c>
@@ -14675,7 +15913,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>398351</v>
       </c>
@@ -14761,7 +15999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>398355</v>
       </c>
@@ -14847,7 +16085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>398357</v>
       </c>
@@ -14933,7 +16171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>398489</v>
       </c>
@@ -15019,7 +16257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>398513</v>
       </c>
@@ -15105,7 +16343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>399300</v>
       </c>
@@ -15191,7 +16429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>400166</v>
       </c>
@@ -15277,7 +16515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>400582</v>
       </c>
@@ -15363,7 +16601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>407216</v>
       </c>
@@ -15449,7 +16687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>407738</v>
       </c>
@@ -15535,7 +16773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>407902</v>
       </c>
@@ -15621,7 +16859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>408127</v>
       </c>
@@ -15707,7 +16945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>408428</v>
       </c>
@@ -15793,7 +17031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>408546</v>
       </c>
@@ -15879,7 +17117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>408753</v>
       </c>
@@ -15965,7 +17203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>409137</v>
       </c>
@@ -16051,7 +17289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>409166</v>
       </c>
@@ -16137,7 +17375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>409207</v>
       </c>
@@ -16223,7 +17461,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>412762</v>
       </c>
@@ -16309,7 +17547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>417735</v>
       </c>
@@ -16395,7 +17633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>417737</v>
       </c>
@@ -16481,7 +17719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>418088</v>
       </c>
@@ -16567,7 +17805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>420034</v>
       </c>
@@ -16653,7 +17891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>420299</v>
       </c>
@@ -16739,7 +17977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>420384</v>
       </c>
@@ -16825,7 +18063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>420407</v>
       </c>
@@ -16911,7 +18149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>420878</v>
       </c>
@@ -16997,7 +18235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>420947</v>
       </c>
@@ -17083,7 +18321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>421059</v>
       </c>
@@ -17169,7 +18407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>421263</v>
       </c>
@@ -17255,7 +18493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>421446</v>
       </c>
@@ -17341,7 +18579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>421471</v>
       </c>
@@ -17427,7 +18665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>421598</v>
       </c>
@@ -17513,7 +18751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>422070</v>
       </c>
@@ -17599,7 +18837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>422801</v>
       </c>
@@ -17685,7 +18923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>423486</v>
       </c>
@@ -17771,7 +19009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>423659</v>
       </c>
@@ -17857,7 +19095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>423953</v>
       </c>
@@ -17943,7 +19181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>426130</v>
       </c>
@@ -18029,7 +19267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>426403</v>
       </c>
@@ -18115,7 +19353,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>428348</v>
       </c>
@@ -18201,7 +19439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>428392</v>
       </c>
@@ -18287,7 +19525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>428810</v>
       </c>
@@ -18373,7 +19611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>428962</v>
       </c>
@@ -18459,7 +19697,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>429016</v>
       </c>
@@ -18545,7 +19783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>429916</v>
       </c>
@@ -18631,7 +19869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>430015</v>
       </c>
@@ -18717,7 +19955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>431066</v>
       </c>
@@ -18803,7 +20041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>432290</v>
       </c>
@@ -18889,7 +20127,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>432336</v>
       </c>
@@ -18975,7 +20213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>433534</v>
       </c>
@@ -19061,7 +20299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>433733</v>
       </c>
@@ -19147,7 +20385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>433090</v>
       </c>
@@ -19233,7 +20471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>433174</v>
       </c>
@@ -19319,7 +20557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>433879</v>
       </c>
@@ -19405,7 +20643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>434020</v>
       </c>
@@ -19491,7 +20729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>434155</v>
       </c>
@@ -19577,7 +20815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>434301</v>
       </c>
@@ -19663,7 +20901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>434423</v>
       </c>
@@ -19749,7 +20987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>434640</v>
       </c>
@@ -19835,7 +21073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>434783</v>
       </c>
@@ -19921,7 +21159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>435068</v>
       </c>
@@ -20007,7 +21245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>435191</v>
       </c>
@@ -20093,7 +21331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>435536</v>
       </c>
@@ -20179,7 +21417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>436922</v>
       </c>
@@ -20265,7 +21503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>437197</v>
       </c>
@@ -20351,7 +21589,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>442280</v>
       </c>
@@ -20437,7 +21675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>442848</v>
       </c>
@@ -20523,7 +21761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>446649</v>
       </c>
@@ -20609,7 +21847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>448442</v>
       </c>
@@ -20695,7 +21933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>448506</v>
       </c>
@@ -20781,7 +22019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>448985</v>
       </c>
@@ -20867,7 +22105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>449239</v>
       </c>
@@ -20953,7 +22191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>455638</v>
       </c>
@@ -21039,7 +22277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>474754</v>
       </c>
@@ -21125,7 +22363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>400059</v>
       </c>
@@ -21211,7 +22449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>409251</v>
       </c>
@@ -21297,7 +22535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>377130</v>
       </c>
@@ -21383,7 +22621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>374112</v>
       </c>
@@ -21469,7 +22707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>374213</v>
       </c>
@@ -21555,7 +22793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>374513</v>
       </c>
@@ -21641,7 +22879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>375546</v>
       </c>
@@ -21727,7 +22965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>376065</v>
       </c>
@@ -21813,7 +23051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>376310</v>
       </c>
@@ -21899,7 +23137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>376397</v>
       </c>
@@ -21985,7 +23223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>382857</v>
       </c>
@@ -22071,7 +23309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>143132</v>
       </c>
@@ -22157,7 +23395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>153940</v>
       </c>
@@ -22243,7 +23481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>415094</v>
       </c>
@@ -22329,7 +23567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>142680</v>
       </c>
@@ -22415,7 +23653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>215211</v>
       </c>
@@ -22501,7 +23739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>143656</v>
       </c>
@@ -22587,7 +23825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>430537</v>
       </c>
@@ -22673,7 +23911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>427166</v>
       </c>
@@ -22759,7 +23997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>421178</v>
       </c>
@@ -22845,7 +24083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="224" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>35853</v>
       </c>
@@ -22928,7 +24166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>382777</v>
       </c>
@@ -23014,7 +24252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>382155</v>
       </c>
@@ -23100,7 +24338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>382255</v>
       </c>
@@ -23186,7 +24424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>382662</v>
       </c>
@@ -23272,7 +24510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>393784</v>
       </c>
@@ -23358,7 +24596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>154805</v>
       </c>
@@ -23444,7 +24682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>327036</v>
       </c>
@@ -23530,7 +24768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>435436</v>
       </c>
@@ -23616,7 +24854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>435205</v>
       </c>
@@ -23702,7 +24940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>435416</v>
       </c>
@@ -23788,7 +25026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>435032</v>
       </c>
@@ -23874,7 +25112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>433911</v>
       </c>
@@ -23960,7 +25198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>448366</v>
       </c>
@@ -24046,7 +25284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>431422</v>
       </c>
@@ -24132,7 +25370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>427764</v>
       </c>
@@ -24218,7 +25456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>416323</v>
       </c>
@@ -24304,7 +25542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>416517</v>
       </c>
@@ -24390,7 +25628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>442206</v>
       </c>
@@ -24476,7 +25714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>403637</v>
       </c>
@@ -24562,7 +25800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>408452</v>
       </c>
@@ -24648,7 +25886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>389400</v>
       </c>
@@ -24734,7 +25972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>389717</v>
       </c>
@@ -24820,7 +26058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>206369</v>
       </c>
@@ -24906,7 +26144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>447954</v>
       </c>
@@ -24992,7 +26230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>415068</v>
       </c>
@@ -25078,7 +26316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>451182</v>
       </c>
@@ -25164,7 +26402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>451362</v>
       </c>
@@ -25250,7 +26488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>373952</v>
       </c>
@@ -25336,7 +26574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>450063</v>
       </c>
@@ -25422,7 +26660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>450291</v>
       </c>
@@ -25508,7 +26746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>427776</v>
       </c>
@@ -25594,7 +26832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>427124</v>
       </c>
@@ -25680,7 +26918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>431511</v>
       </c>
@@ -25766,7 +27004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>446962</v>
       </c>
@@ -25852,7 +27090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>446968</v>
       </c>
@@ -25938,7 +27176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>447156</v>
       </c>
@@ -26024,7 +27262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>445375</v>
       </c>
@@ -26110,7 +27348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>442138</v>
       </c>
@@ -26196,7 +27434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>445000</v>
       </c>
@@ -26282,7 +27520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>445009</v>
       </c>
@@ -26368,7 +27606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>436849</v>
       </c>
@@ -26454,7 +27692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>433069</v>
       </c>
@@ -26540,7 +27778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>436992</v>
       </c>
@@ -26626,7 +27864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>450422</v>
       </c>
@@ -26712,7 +27950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>449997</v>
       </c>
@@ -26798,7 +28036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>382470</v>
       </c>
@@ -26884,7 +28122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>382194</v>
       </c>
@@ -26970,7 +28208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>383618</v>
       </c>
@@ -27056,7 +28294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>383852</v>
       </c>
@@ -27142,7 +28380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>393409</v>
       </c>
@@ -27228,7 +28466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>388592</v>
       </c>
@@ -27314,7 +28552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>385980</v>
       </c>
@@ -27400,7 +28638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>388457</v>
       </c>
@@ -27486,7 +28724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>388307</v>
       </c>
@@ -27572,7 +28810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>387838</v>
       </c>
@@ -27658,7 +28896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>387771</v>
       </c>
@@ -27744,7 +28982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>385483</v>
       </c>
@@ -27830,7 +29068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>387455</v>
       </c>
@@ -27916,7 +29154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>386548</v>
       </c>
@@ -28002,7 +29240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>386676</v>
       </c>
@@ -28088,7 +29326,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>386771</v>
       </c>
@@ -28174,7 +29412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>394767</v>
       </c>
@@ -28260,7 +29498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>434192</v>
       </c>
@@ -28346,7 +29584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>440731</v>
       </c>
@@ -28432,7 +29670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>417223</v>
       </c>
@@ -28518,7 +29756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>400454</v>
       </c>
@@ -28604,7 +29842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>401334</v>
       </c>
@@ -28690,7 +29928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>384882</v>
       </c>
@@ -28776,7 +30014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>383041</v>
       </c>
@@ -28862,7 +30100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>382505</v>
       </c>
@@ -28948,7 +30186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>382683</v>
       </c>
@@ -29034,7 +30272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>380135</v>
       </c>
@@ -29120,7 +30358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>378483</v>
       </c>
@@ -29206,7 +30444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>377786</v>
       </c>
@@ -29292,7 +30530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>377917</v>
       </c>
@@ -29378,7 +30616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>389158</v>
       </c>
@@ -29464,7 +30702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="301" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>171705</v>
       </c>
@@ -29550,7 +30788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>81681</v>
       </c>
@@ -29633,7 +30871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>287022</v>
       </c>
@@ -29719,7 +30957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>340768</v>
       </c>
@@ -29805,7 +31043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>345008</v>
       </c>
@@ -29891,7 +31129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>390316</v>
       </c>
@@ -29977,7 +31215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>402161</v>
       </c>
@@ -30063,7 +31301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>420503</v>
       </c>
@@ -30149,7 +31387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>443938</v>
       </c>
@@ -30235,7 +31473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>419966</v>
       </c>
@@ -30321,7 +31559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>423844</v>
       </c>
@@ -30407,7 +31645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>392643</v>
       </c>
@@ -30493,7 +31731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>391748</v>
       </c>
@@ -30579,7 +31817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>391851</v>
       </c>
@@ -30665,7 +31903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>382456</v>
       </c>
@@ -30751,7 +31989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>382462</v>
       </c>
@@ -30837,7 +32075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>394256</v>
       </c>
@@ -30923,7 +32161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>430778</v>
       </c>
@@ -31009,7 +32247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>442647</v>
       </c>
@@ -31095,7 +32333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="320" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>182073</v>
       </c>
@@ -31181,7 +32419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>262381</v>
       </c>
@@ -31267,7 +32505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>372042</v>
       </c>
@@ -31353,7 +32591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>392434</v>
       </c>
@@ -31439,7 +32677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>393952</v>
       </c>
@@ -31525,7 +32763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>395034</v>
       </c>
@@ -31611,7 +32849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>393023</v>
       </c>
@@ -31697,7 +32935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>392057</v>
       </c>
@@ -31783,7 +33021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>392805</v>
       </c>
@@ -31869,7 +33107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>403148</v>
       </c>
@@ -31955,7 +33193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>415518</v>
       </c>
@@ -32041,7 +33279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>414252</v>
       </c>
@@ -32127,7 +33365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>409963</v>
       </c>
@@ -32213,7 +33451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>401675</v>
       </c>
@@ -32299,7 +33537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>401706</v>
       </c>
@@ -32385,7 +33623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>403647</v>
       </c>
@@ -32471,7 +33709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>403726</v>
       </c>
@@ -32557,7 +33795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>397522</v>
       </c>
@@ -32643,7 +33881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>397338</v>
       </c>
@@ -32729,7 +33967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>397118</v>
       </c>
@@ -32815,7 +34053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>443841</v>
       </c>
@@ -32901,7 +34139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>440771</v>
       </c>
@@ -32987,7 +34225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>441150</v>
       </c>
@@ -33073,7 +34311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>441196</v>
       </c>
@@ -33159,7 +34397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>441716</v>
       </c>
@@ -33245,7 +34483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>440104</v>
       </c>
@@ -33331,7 +34569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>440214</v>
       </c>
@@ -33417,7 +34655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>440687</v>
       </c>
@@ -33503,7 +34741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>429815</v>
       </c>
@@ -33589,7 +34827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>422596</v>
       </c>
@@ -33675,7 +34913,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>415911</v>
       </c>
@@ -33761,7 +34999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>561148</v>
       </c>
@@ -33847,7 +35085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>17426</v>
       </c>
@@ -33930,7 +35168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>397240</v>
       </c>
@@ -34016,7 +35254,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>397362</v>
       </c>
@@ -34102,7 +35340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>396741</v>
       </c>
@@ -34188,7 +35426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>398216</v>
       </c>
@@ -34274,7 +35512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>399941</v>
       </c>
@@ -34360,7 +35598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>413095</v>
       </c>
@@ -34446,7 +35684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>392863</v>
       </c>
@@ -34532,7 +35770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>393099</v>
       </c>
@@ -34618,7 +35856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>392936</v>
       </c>
@@ -34704,7 +35942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>452459</v>
       </c>
@@ -34790,7 +36028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>453041</v>
       </c>
@@ -34876,7 +36114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>427778</v>
       </c>
@@ -34962,7 +36200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>433864</v>
       </c>
@@ -35048,7 +36286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>430810</v>
       </c>
@@ -35134,7 +36372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>430284</v>
       </c>
@@ -35220,7 +36458,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>318881</v>
       </c>
@@ -35306,7 +36544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>395183</v>
       </c>
@@ -35392,7 +36630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>411871</v>
       </c>
@@ -35478,7 +36716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>446960</v>
       </c>
@@ -35564,7 +36802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>445777</v>
       </c>
@@ -35650,7 +36888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>439946</v>
       </c>
@@ -35736,7 +36974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>437207</v>
       </c>
@@ -35822,7 +37060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>438989</v>
       </c>
@@ -35908,7 +37146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>442219</v>
       </c>
@@ -35994,7 +37232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>434240</v>
       </c>
@@ -36080,7 +37318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>434750</v>
       </c>
@@ -36166,7 +37404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>433379</v>
       </c>
@@ -36252,7 +37490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>436055</v>
       </c>
@@ -36338,7 +37576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>436658</v>
       </c>
@@ -36424,7 +37662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>435074</v>
       </c>
@@ -36510,7 +37748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>431224</v>
       </c>
@@ -36596,7 +37834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>431406</v>
       </c>
@@ -36682,7 +37920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>427826</v>
       </c>
@@ -36768,7 +38006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>426699</v>
       </c>
@@ -36854,7 +38092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>426777</v>
       </c>
@@ -36940,7 +38178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>415922</v>
       </c>
@@ -37026,7 +38264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>416301</v>
       </c>
@@ -37112,7 +38350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>416405</v>
       </c>
@@ -37198,7 +38436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>423024</v>
       </c>
@@ -37284,7 +38522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>423076</v>
       </c>
@@ -37370,7 +38608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>423248</v>
       </c>
@@ -37456,7 +38694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>449450</v>
       </c>
@@ -37542,7 +38780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>449827</v>
       </c>
@@ -37628,7 +38866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>415891</v>
       </c>
@@ -37714,7 +38952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>407009</v>
       </c>
@@ -37800,7 +39038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>399418</v>
       </c>
@@ -37886,7 +39124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>396417</v>
       </c>
@@ -37972,7 +39210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>395938</v>
       </c>
@@ -38058,7 +39296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>394433</v>
       </c>
@@ -38144,7 +39382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="402" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>394751</v>
       </c>
@@ -38230,7 +39468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>390610</v>
       </c>
@@ -38316,7 +39554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>391597</v>
       </c>
@@ -38402,7 +39640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>389582</v>
       </c>
@@ -38488,7 +39726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="406" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>389219</v>
       </c>
@@ -38574,7 +39812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="407" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>389223</v>
       </c>
@@ -38660,7 +39898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="408" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>388455</v>
       </c>
@@ -38746,7 +39984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="409" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>385055</v>
       </c>
@@ -38832,7 +40070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="410" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>385579</v>
       </c>
@@ -38918,7 +40156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="411" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>372107</v>
       </c>
@@ -39004,7 +40242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="412" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>373415</v>
       </c>
@@ -39090,7 +40328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="413" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>378629</v>
       </c>
@@ -39176,7 +40414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="414" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>378631</v>
       </c>
@@ -39262,7 +40500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="415" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>379676</v>
       </c>
@@ -39348,7 +40586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="416" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>379686</v>
       </c>
@@ -39434,7 +40672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="417" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>379835</v>
       </c>
@@ -39520,7 +40758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="418" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>377109</v>
       </c>
@@ -39606,7 +40844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="419" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>371388</v>
       </c>
@@ -39692,7 +40930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="420" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>371402</v>
       </c>
@@ -39778,7 +41016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="421" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>380746</v>
       </c>
@@ -39864,7 +41102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="422" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>380479</v>
       </c>
@@ -39950,7 +41188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="423" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>381731</v>
       </c>
@@ -40036,7 +41274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="424" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>380986</v>
       </c>
@@ -40122,7 +41360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="425" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>381481</v>
       </c>
@@ -40208,7 +41446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="426" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>381487</v>
       </c>
@@ -40294,7 +41532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="427" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>381607</v>
       </c>
@@ -40380,7 +41618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="428" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>49075</v>
       </c>
@@ -40463,7 +41701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="429" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>51898</v>
       </c>
@@ -40546,7 +41784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="430" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>51902</v>
       </c>
@@ -40629,7 +41867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="431" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>56718</v>
       </c>
@@ -40712,7 +41950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="432" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>163552</v>
       </c>
@@ -40798,7 +42036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="433" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>362334</v>
       </c>
@@ -40884,7 +42122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="434" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>363370</v>
       </c>
@@ -40970,7 +42208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="435" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>387966</v>
       </c>
@@ -41056,7 +42294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="436" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>391265</v>
       </c>
@@ -41142,7 +42380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="437" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>392198</v>
       </c>
@@ -41228,7 +42466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="438" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>400519</v>
       </c>
@@ -41314,7 +42552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="439" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>417635</v>
       </c>
@@ -41400,7 +42638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="440" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>416661</v>
       </c>
@@ -41486,7 +42724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="441" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>418974</v>
       </c>
@@ -41572,7 +42810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="442" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>429671</v>
       </c>
@@ -41658,7 +42896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="443" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>426615</v>
       </c>
@@ -41744,7 +42982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>432360</v>
       </c>
@@ -41830,7 +43068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="445" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>435039</v>
       </c>
@@ -41916,7 +43154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="446" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>434168</v>
       </c>
@@ -42002,7 +43240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="447" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>440831</v>
       </c>
@@ -42088,7 +43326,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="448" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>441729</v>
       </c>
@@ -42174,7 +43412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="449" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>439042</v>
       </c>
@@ -42260,7 +43498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="450" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>443206</v>
       </c>
@@ -42346,7 +43584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="451" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>380189</v>
       </c>
@@ -42432,7 +43670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="452" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>380233</v>
       </c>
@@ -42518,7 +43756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="453" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>342523</v>
       </c>
@@ -42604,7 +43842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="454" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>342950</v>
       </c>
@@ -42690,7 +43928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="455" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>348184</v>
       </c>
@@ -42776,7 +44014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="456" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>348429</v>
       </c>
@@ -42862,7 +44100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="457" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>349223</v>
       </c>
@@ -42948,7 +44186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="458" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>349242</v>
       </c>
@@ -43034,7 +44272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="459" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>361478</v>
       </c>
@@ -43120,7 +44358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="460" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>357796</v>
       </c>
@@ -43206,7 +44444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="461" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>397391</v>
       </c>
@@ -43292,7 +44530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="462" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>397703</v>
       </c>
@@ -43378,7 +44616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>395376</v>
       </c>
@@ -43464,7 +44702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="464" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>443622</v>
       </c>
@@ -43550,7 +44788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="465" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>434084</v>
       </c>
@@ -43636,7 +44874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="466" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>434886</v>
       </c>
@@ -43722,7 +44960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="467" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>435424</v>
       </c>
@@ -43808,7 +45046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="468" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>435682</v>
       </c>
@@ -43894,7 +45132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="469" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>435838</v>
       </c>
@@ -43980,7 +45218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="470" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>433872</v>
       </c>
@@ -44066,7 +45304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="471" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>430935</v>
       </c>
@@ -44152,7 +45390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="472" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>445252</v>
       </c>
@@ -44238,7 +45476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="473" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>292269</v>
       </c>
@@ -44324,7 +45562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="474" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>335190</v>
       </c>
@@ -44410,7 +45648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="475" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>383486</v>
       </c>
@@ -44496,7 +45734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="476" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>464678</v>
       </c>
